--- a/Analised_Analysis3.xlsx
+++ b/Analised_Analysis3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhcao/Desktop/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC39402A-4203-7C42-98C1-38B3403FF8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A187A9A-756F-E644-BE3B-C906C027098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="250">
   <si>
     <t>id</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>GX31</t>
-  </si>
-  <si>
-    <t>GX41</t>
   </si>
   <si>
     <t>CH184/19</t>
@@ -780,21 +777,6 @@
     <t>YHD</t>
   </si>
   <si>
-    <t>NT16TB</t>
-  </si>
-  <si>
-    <t>GX46</t>
-  </si>
-  <si>
-    <t>NT46</t>
-  </si>
-  <si>
-    <t>GX16</t>
-  </si>
-  <si>
-    <t>GX11</t>
-  </si>
-  <si>
     <t>GX21</t>
   </si>
   <si>
@@ -881,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -911,8 +893,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1065,7 +1045,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>132135</xdr:rowOff>
@@ -35375,28 +35355,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:P109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="33.83203125" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="9"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -35404,7 +35380,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -35412,6992 +35388,4974 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="G1" t="s">
-        <v>250</v>
+      <c r="F1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="H1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>204</v>
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>248</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>243</v>
       </c>
       <c r="L1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="N1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="O1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>244</v>
-      </c>
-      <c r="R1" t="s">
-        <v>255</v>
-      </c>
-      <c r="S1" t="s">
-        <v>245</v>
-      </c>
-      <c r="T1" t="s">
-        <v>246</v>
-      </c>
-      <c r="U1" t="s">
         <v>247</v>
       </c>
-      <c r="V1" t="s">
-        <v>248</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
-        <v>10.755000000000001</v>
-      </c>
-      <c r="G2">
-        <v>11.48</v>
+      <c r="F2">
+        <v>11.63</v>
+      </c>
+      <c r="G2" s="9">
+        <v>10.63</v>
       </c>
       <c r="H2">
-        <v>11.63</v>
-      </c>
-      <c r="I2" s="9">
-        <v>10.63</v>
+        <v>5.63</v>
+      </c>
+      <c r="I2">
+        <v>8.0299999999999994</v>
       </c>
       <c r="J2">
-        <v>5.63</v>
+        <v>10.56</v>
       </c>
       <c r="K2">
-        <v>5.59</v>
+        <v>11.435500000000001</v>
       </c>
       <c r="L2">
-        <v>8.44</v>
+        <v>11.219999999999999</v>
       </c>
       <c r="M2">
-        <v>8.0299999999999994</v>
+        <v>16.47</v>
       </c>
       <c r="N2">
-        <v>10.52</v>
+        <v>23.339999999999996</v>
       </c>
       <c r="O2">
-        <v>11.4405</v>
+        <v>23.53</v>
       </c>
       <c r="P2">
-        <v>10.56</v>
-      </c>
-      <c r="Q2">
-        <v>11.435500000000001</v>
-      </c>
-      <c r="R2">
-        <f>J2+K2</f>
-        <v>11.219999999999999</v>
-      </c>
-      <c r="S2">
-        <f>L2+M2</f>
-        <v>16.47</v>
-      </c>
-      <c r="T2">
-        <v>23.339999999999996</v>
-      </c>
-      <c r="U2">
-        <v>23.53</v>
-      </c>
-      <c r="V2">
         <v>22.03</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
-        <v>10.769</v>
-      </c>
-      <c r="G3" s="1">
-        <v>11.18</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3" s="1">
         <v>11.24</v>
       </c>
-      <c r="I3" s="9">
+      <c r="G3" s="9">
         <v>10.811</v>
       </c>
+      <c r="H3">
+        <v>5.31</v>
+      </c>
+      <c r="I3">
+        <v>8.16</v>
+      </c>
       <c r="J3">
-        <v>5.31</v>
+        <v>9.73</v>
       </c>
       <c r="K3">
-        <v>5.43</v>
+        <v>10.667999999999999</v>
       </c>
       <c r="L3">
-        <v>8.1199999999999992</v>
+        <v>10.739999999999998</v>
       </c>
       <c r="M3">
-        <v>8.16</v>
+        <v>16.28</v>
       </c>
       <c r="N3">
-        <v>10.15</v>
+        <v>22.379999999999995</v>
       </c>
       <c r="O3">
-        <v>12.0425</v>
+        <v>21.47</v>
       </c>
       <c r="P3">
-        <v>9.73</v>
-      </c>
-      <c r="Q3">
-        <v>10.667999999999999</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R66" si="0">J3+K3</f>
-        <v>10.739999999999998</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S66" si="1">L3+M3</f>
-        <v>16.28</v>
-      </c>
-      <c r="T3">
-        <v>22.379999999999995</v>
-      </c>
-      <c r="U3">
-        <v>21.47</v>
-      </c>
-      <c r="V3">
         <v>21.240000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A14" si="2">A3+1</f>
+        <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="9">
-        <v>11.04</v>
-      </c>
-      <c r="G4" s="1">
-        <v>11.17</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="F4" s="1">
         <v>10.72</v>
       </c>
-      <c r="I4" s="9">
+      <c r="G4" s="9">
         <v>11.097</v>
       </c>
+      <c r="H4">
+        <v>6.1</v>
+      </c>
+      <c r="I4">
+        <v>8.7799999999999994</v>
+      </c>
       <c r="J4">
-        <v>6.1</v>
+        <v>11.18</v>
       </c>
       <c r="K4">
-        <v>5.94</v>
+        <v>11.5825</v>
       </c>
       <c r="L4">
-        <v>8.82</v>
+        <v>12.04</v>
       </c>
       <c r="M4">
-        <v>8.7799999999999994</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="N4">
-        <v>10.59</v>
+        <v>25.4</v>
       </c>
       <c r="O4">
-        <v>11.673999999999999</v>
+        <v>23.509999999999998</v>
       </c>
       <c r="P4">
-        <v>11.18</v>
-      </c>
-      <c r="Q4">
-        <v>11.5825</v>
-      </c>
-      <c r="R4">
+        <v>22.119999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
         <f t="shared" si="0"/>
-        <v>12.04</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="1"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="T4">
-        <v>25.4</v>
-      </c>
-      <c r="U4">
-        <v>23.509999999999998</v>
-      </c>
-      <c r="V4">
-        <v>22.119999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="9">
-        <v>11.141</v>
-      </c>
-      <c r="G5" s="1">
-        <v>11.55</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="F5" s="1">
         <v>11.94</v>
       </c>
-      <c r="I5" s="9">
+      <c r="G5" s="9">
         <v>11.33</v>
       </c>
+      <c r="H5">
+        <v>5.81</v>
+      </c>
+      <c r="I5">
+        <v>9.01</v>
+      </c>
       <c r="J5">
-        <v>5.81</v>
+        <v>11.3</v>
       </c>
       <c r="K5">
-        <v>5.63</v>
+        <v>11.573499999999999</v>
       </c>
       <c r="L5">
-        <v>8.6</v>
+        <v>11.44</v>
       </c>
       <c r="M5">
-        <v>9.01</v>
+        <v>17.61</v>
       </c>
       <c r="N5">
-        <v>10.029999999999999</v>
+        <v>24.14</v>
       </c>
       <c r="O5">
-        <v>11.6915</v>
+        <v>23.860000000000003</v>
       </c>
       <c r="P5">
-        <v>11.3</v>
-      </c>
-      <c r="Q5">
-        <v>11.573499999999999</v>
-      </c>
-      <c r="R5">
+        <v>23.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
         <f t="shared" si="0"/>
-        <v>11.44</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="1"/>
-        <v>17.61</v>
-      </c>
-      <c r="T5">
-        <v>24.14</v>
-      </c>
-      <c r="U5">
-        <v>23.860000000000003</v>
-      </c>
-      <c r="V5">
-        <v>23.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="9">
-        <v>10.349</v>
-      </c>
-      <c r="G6" s="1">
-        <v>10.76</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="F6" s="1">
         <v>10.72</v>
       </c>
-      <c r="I6" s="9">
+      <c r="G6" s="9">
         <v>10.247</v>
       </c>
+      <c r="H6">
+        <v>5.94</v>
+      </c>
+      <c r="I6">
+        <v>8.5500000000000007</v>
+      </c>
       <c r="J6">
-        <v>5.94</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="K6">
-        <v>6.06</v>
+        <v>10.9765</v>
       </c>
       <c r="L6">
-        <v>8.7799999999999994</v>
+        <v>12</v>
       </c>
       <c r="M6">
-        <v>8.5500000000000007</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="N6">
-        <v>10.73</v>
+        <v>24.45</v>
       </c>
       <c r="O6">
-        <v>11.004999999999999</v>
+        <v>23.62</v>
       </c>
       <c r="P6">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="Q6">
-        <v>10.9765</v>
-      </c>
-      <c r="R6">
+        <v>21.279999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>11.11</v>
+      </c>
+      <c r="G7" s="9">
+        <v>9.8360000000000003</v>
+      </c>
+      <c r="H7">
+        <v>5.15</v>
+      </c>
+      <c r="I7">
+        <v>8.09</v>
+      </c>
+      <c r="J7">
+        <v>10.46</v>
+      </c>
+      <c r="K7">
+        <v>11.236499999999999</v>
+      </c>
+      <c r="L7">
+        <v>10.5</v>
+      </c>
+      <c r="M7">
+        <v>16.560000000000002</v>
+      </c>
+      <c r="N7">
+        <v>22.07</v>
+      </c>
+      <c r="O7">
+        <v>22.88</v>
+      </c>
+      <c r="P7">
+        <v>22.330000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>11.68</v>
+      </c>
+      <c r="G8" s="9">
+        <v>10.898999999999999</v>
+      </c>
+      <c r="H8">
+        <v>5.81</v>
+      </c>
+      <c r="I8">
+        <v>9.86</v>
+      </c>
+      <c r="J8">
+        <v>10.63</v>
+      </c>
+      <c r="K8">
+        <v>11.7195</v>
+      </c>
+      <c r="L8">
+        <v>11.64</v>
+      </c>
+      <c r="M8">
+        <v>19.740000000000002</v>
+      </c>
+      <c r="N8">
+        <v>24.65</v>
+      </c>
+      <c r="O8">
+        <v>23.709999999999997</v>
+      </c>
+      <c r="P8">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="23">
+        <v>11</v>
+      </c>
+      <c r="G9" s="24">
+        <v>10.97</v>
+      </c>
+      <c r="H9" s="22">
+        <v>5.32</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="J9" s="18">
+        <v>10.15</v>
+      </c>
+      <c r="K9">
+        <v>11.448</v>
+      </c>
+      <c r="L9" s="22">
+        <v>10.61</v>
+      </c>
+      <c r="M9" s="22">
+        <v>16.79</v>
+      </c>
+      <c r="N9" s="22">
+        <v>23.25</v>
+      </c>
+      <c r="O9" s="22">
+        <v>22.96</v>
+      </c>
+      <c r="P9" s="22">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>11.57</v>
+      </c>
+      <c r="G10" s="9">
+        <v>10.846</v>
+      </c>
+      <c r="H10">
+        <v>5.91</v>
+      </c>
+      <c r="I10">
+        <v>9.14</v>
+      </c>
+      <c r="J10">
+        <v>10.67</v>
+      </c>
+      <c r="K10">
+        <v>11.8035</v>
+      </c>
+      <c r="L10">
+        <v>11.95</v>
+      </c>
+      <c r="M10">
+        <v>17.990000000000002</v>
+      </c>
+      <c r="N10">
+        <v>24.72</v>
+      </c>
+      <c r="O10">
+        <v>22.94</v>
+      </c>
+      <c r="P10">
+        <v>22.990000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>11.11</v>
+      </c>
+      <c r="G11" s="9">
+        <v>9.4670000000000005</v>
+      </c>
+      <c r="H11">
+        <v>5.64</v>
+      </c>
+      <c r="I11">
+        <v>8.24</v>
+      </c>
+      <c r="J11">
+        <v>10.02</v>
+      </c>
+      <c r="K11">
+        <v>10.952999999999999</v>
+      </c>
+      <c r="L11">
+        <v>11.21</v>
+      </c>
+      <c r="M11">
+        <v>16.59</v>
+      </c>
+      <c r="N11">
+        <v>23.7</v>
+      </c>
+      <c r="O11">
+        <v>23.729999999999997</v>
+      </c>
+      <c r="P11">
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11.34</v>
+      </c>
+      <c r="G12" s="9">
+        <v>9.9149999999999991</v>
+      </c>
+      <c r="H12">
+        <v>5.63</v>
+      </c>
+      <c r="I12">
+        <v>8.35</v>
+      </c>
+      <c r="J12">
+        <v>10.61</v>
+      </c>
+      <c r="K12">
+        <v>11.7415</v>
+      </c>
+      <c r="L12">
+        <v>11.49</v>
+      </c>
+      <c r="M12">
+        <v>16.89</v>
+      </c>
+      <c r="N12">
+        <v>23.419999999999998</v>
+      </c>
+      <c r="O12">
+        <v>22.55</v>
+      </c>
+      <c r="P12">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="1"/>
-        <v>17.329999999999998</v>
-      </c>
-      <c r="T6">
-        <v>24.45</v>
-      </c>
-      <c r="U6">
-        <v>23.62</v>
-      </c>
-      <c r="V6">
-        <v>21.279999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="9">
-        <v>10.284000000000001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>11.01</v>
-      </c>
-      <c r="H7" s="1">
-        <v>11.11</v>
-      </c>
-      <c r="I7" s="9">
-        <v>9.8360000000000003</v>
-      </c>
-      <c r="J7">
-        <v>5.15</v>
-      </c>
-      <c r="K7">
-        <v>5.35</v>
-      </c>
-      <c r="L7">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="M7">
-        <v>8.09</v>
-      </c>
-      <c r="N7">
-        <v>10.46</v>
-      </c>
-      <c r="O7">
-        <v>11.0525</v>
-      </c>
-      <c r="P7">
-        <v>10.46</v>
-      </c>
-      <c r="Q7">
-        <v>11.236499999999999</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="1"/>
-        <v>16.560000000000002</v>
-      </c>
-      <c r="T7">
-        <v>22.07</v>
-      </c>
-      <c r="U7">
-        <v>22.88</v>
-      </c>
-      <c r="V7">
-        <v>22.330000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9">
-        <v>11.032</v>
-      </c>
-      <c r="G8" s="1">
-        <v>11.73</v>
-      </c>
-      <c r="H8" s="1">
-        <v>11.68</v>
-      </c>
-      <c r="I8" s="9">
-        <v>10.898999999999999</v>
-      </c>
-      <c r="J8">
-        <v>5.81</v>
-      </c>
-      <c r="K8">
-        <v>5.83</v>
-      </c>
-      <c r="L8">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="M8">
-        <v>9.86</v>
-      </c>
-      <c r="N8">
-        <v>10.8</v>
-      </c>
-      <c r="O8">
-        <v>11.597000000000001</v>
-      </c>
-      <c r="P8">
-        <v>10.63</v>
-      </c>
-      <c r="Q8">
-        <v>11.7195</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
-        <v>11.64</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="1"/>
-        <v>19.740000000000002</v>
-      </c>
-      <c r="T8">
-        <v>24.65</v>
-      </c>
-      <c r="U8">
-        <v>23.709999999999997</v>
-      </c>
-      <c r="V8">
-        <v>22.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="30">
-        <v>10.943</v>
-      </c>
-      <c r="G9" s="29">
-        <v>11.36</v>
-      </c>
-      <c r="H9" s="23">
-        <v>11</v>
-      </c>
-      <c r="I9" s="24">
-        <v>10.97</v>
-      </c>
-      <c r="J9" s="22">
-        <v>5.32</v>
-      </c>
-      <c r="K9" s="22">
-        <v>5.29</v>
-      </c>
-      <c r="L9" s="18">
-        <v>8.34</v>
-      </c>
-      <c r="M9" s="18">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="N9" s="18">
-        <v>10.18</v>
-      </c>
-      <c r="O9">
-        <v>11.747</v>
-      </c>
-      <c r="P9" s="18">
-        <v>10.15</v>
-      </c>
-      <c r="Q9">
-        <v>11.448</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>10.61</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="1"/>
-        <v>16.79</v>
-      </c>
-      <c r="T9" s="22">
-        <v>23.25</v>
-      </c>
-      <c r="U9" s="22">
-        <v>22.96</v>
-      </c>
-      <c r="V9" s="22">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
-        <v>10.82</v>
-      </c>
-      <c r="G10" s="1">
-        <v>11.87</v>
-      </c>
-      <c r="H10" s="1">
-        <v>11.57</v>
-      </c>
-      <c r="I10" s="9">
-        <v>10.846</v>
-      </c>
-      <c r="J10">
-        <v>5.91</v>
-      </c>
-      <c r="K10">
-        <v>6.04</v>
-      </c>
-      <c r="L10">
-        <v>8.85</v>
-      </c>
-      <c r="M10">
-        <v>9.14</v>
-      </c>
-      <c r="N10">
-        <v>9.82</v>
-      </c>
-      <c r="O10">
-        <v>11.9055</v>
-      </c>
-      <c r="P10">
-        <v>10.67</v>
-      </c>
-      <c r="Q10">
-        <v>11.8035</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="0"/>
-        <v>11.95</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="1"/>
-        <v>17.990000000000002</v>
-      </c>
-      <c r="T10">
-        <v>24.72</v>
-      </c>
-      <c r="U10">
-        <v>22.94</v>
-      </c>
-      <c r="V10">
-        <v>22.990000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9">
-        <v>10.263999999999999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>11.31</v>
-      </c>
-      <c r="H11" s="1">
-        <v>11.11</v>
-      </c>
-      <c r="I11" s="9">
-        <v>9.4670000000000005</v>
-      </c>
-      <c r="J11">
-        <v>5.64</v>
-      </c>
-      <c r="K11">
-        <v>5.57</v>
-      </c>
-      <c r="L11">
-        <v>8.35</v>
-      </c>
-      <c r="M11">
-        <v>8.24</v>
-      </c>
-      <c r="N11">
-        <v>10.15</v>
-      </c>
-      <c r="O11">
-        <v>10.7295</v>
-      </c>
-      <c r="P11">
-        <v>10.02</v>
-      </c>
-      <c r="Q11">
-        <v>10.952999999999999</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="0"/>
-        <v>11.21</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="1"/>
-        <v>16.59</v>
-      </c>
-      <c r="T11">
-        <v>23.7</v>
-      </c>
-      <c r="U11">
-        <v>23.729999999999997</v>
-      </c>
-      <c r="V11">
-        <v>21.59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9">
-        <v>10.670999999999999</v>
-      </c>
-      <c r="G12" s="1">
-        <v>11.38</v>
-      </c>
-      <c r="H12" s="1">
-        <v>11.34</v>
-      </c>
-      <c r="I12" s="9">
-        <v>9.9149999999999991</v>
-      </c>
-      <c r="J12">
-        <v>5.63</v>
-      </c>
-      <c r="K12">
-        <v>5.86</v>
-      </c>
-      <c r="L12">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="M12">
-        <v>8.35</v>
-      </c>
-      <c r="N12">
-        <v>10.69</v>
-      </c>
-      <c r="O12">
-        <v>11.5785</v>
-      </c>
-      <c r="P12">
-        <v>10.61</v>
-      </c>
-      <c r="Q12">
-        <v>11.7415</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
-        <v>11.49</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="1"/>
-        <v>16.89</v>
-      </c>
-      <c r="T12">
-        <v>23.419999999999998</v>
-      </c>
-      <c r="U12">
-        <v>22.55</v>
-      </c>
-      <c r="V12">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" s="9">
-        <v>10.528</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10.56</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="F13" s="1">
         <v>10.33</v>
       </c>
-      <c r="I13" s="9">
+      <c r="G13" s="9">
         <v>10.342000000000001</v>
       </c>
+      <c r="H13">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="I13">
+        <v>7.87</v>
+      </c>
       <c r="J13">
-        <v>4.9800000000000004</v>
+        <v>11.14</v>
       </c>
       <c r="K13">
-        <v>5.26</v>
+        <v>11.031499999999999</v>
       </c>
       <c r="L13">
-        <v>8.19</v>
+        <v>10.24</v>
       </c>
       <c r="M13">
-        <v>7.87</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="N13">
-        <v>11.25</v>
+        <v>21.61</v>
       </c>
       <c r="O13">
-        <v>11.0345</v>
+        <v>21.33</v>
       </c>
       <c r="P13">
-        <v>11.14</v>
-      </c>
-      <c r="Q13">
-        <v>11.031499999999999</v>
-      </c>
-      <c r="R13">
+        <v>20.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14">
         <f t="shared" si="0"/>
-        <v>10.24</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="1"/>
-        <v>16.059999999999999</v>
-      </c>
-      <c r="T13">
-        <v>21.61</v>
-      </c>
-      <c r="U13">
-        <v>21.33</v>
-      </c>
-      <c r="V13">
-        <v>20.43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="9">
-        <v>11.163</v>
-      </c>
-      <c r="G14" s="1">
-        <v>11.17</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="F14" s="1">
         <v>11.16</v>
       </c>
-      <c r="I14" s="9">
+      <c r="G14" s="9">
         <v>11.137</v>
       </c>
+      <c r="H14">
+        <v>5.25</v>
+      </c>
+      <c r="I14">
+        <v>8.75</v>
+      </c>
       <c r="J14">
-        <v>5.25</v>
+        <v>10.54</v>
       </c>
       <c r="K14">
-        <v>5.57</v>
+        <v>12.135</v>
       </c>
       <c r="L14">
-        <v>8.83</v>
+        <v>10.82</v>
       </c>
       <c r="M14">
-        <v>8.75</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="N14">
-        <v>11.09</v>
+        <v>22.759999999999998</v>
       </c>
       <c r="O14">
-        <v>11.975999999999999</v>
+        <v>24.39</v>
       </c>
       <c r="P14">
-        <v>10.54</v>
-      </c>
-      <c r="Q14">
-        <v>12.135</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="0"/>
-        <v>10.82</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="1"/>
-        <v>17.579999999999998</v>
-      </c>
-      <c r="T14">
-        <v>22.759999999999998</v>
-      </c>
-      <c r="U14">
-        <v>24.39</v>
-      </c>
-      <c r="V14">
         <v>22.95</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>A14+1</f>
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
         <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="9">
-        <v>11.286</v>
-      </c>
-      <c r="G15" s="1">
-        <v>11.05</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="F15" s="1">
         <v>11.06</v>
       </c>
-      <c r="I15" s="9">
+      <c r="G15" s="9">
         <v>10.737</v>
       </c>
+      <c r="H15">
+        <v>5.53</v>
+      </c>
+      <c r="I15">
+        <v>8.94</v>
+      </c>
       <c r="J15">
-        <v>5.53</v>
+        <v>11.16</v>
       </c>
       <c r="K15">
-        <v>5.59</v>
+        <v>11.563499999999999</v>
       </c>
       <c r="L15">
-        <v>8.64</v>
+        <v>11.120000000000001</v>
       </c>
       <c r="M15">
-        <v>8.94</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="N15">
-        <v>12.18</v>
+        <v>23.11</v>
       </c>
       <c r="O15">
-        <v>11.625</v>
+        <v>23.4</v>
       </c>
       <c r="P15">
-        <v>11.16</v>
-      </c>
-      <c r="Q15">
-        <v>11.563499999999999</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>11.120000000000001</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="1"/>
-        <v>17.579999999999998</v>
-      </c>
-      <c r="T15">
-        <v>23.11</v>
-      </c>
-      <c r="U15">
-        <v>23.4</v>
-      </c>
-      <c r="V15">
         <v>22.29</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
-        <f t="shared" ref="A16:A79" si="3">A15+1</f>
+        <f t="shared" ref="A16:A79" si="1">A15+1</f>
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>21</v>
       </c>
       <c r="E16" s="25">
         <v>1</v>
       </c>
-      <c r="F16" s="10">
-        <v>10.930999999999999</v>
-      </c>
-      <c r="G16" s="4">
-        <v>12.27</v>
-      </c>
-      <c r="H16" s="27">
+      <c r="F16" s="27">
         <v>12.09</v>
       </c>
-      <c r="I16" s="28">
+      <c r="G16" s="28">
         <v>11.906000000000001</v>
       </c>
-      <c r="J16" s="26">
+      <c r="H16" s="26">
         <v>6.31</v>
       </c>
-      <c r="K16" s="26">
-        <v>6.17</v>
-      </c>
-      <c r="L16">
-        <v>9.84</v>
-      </c>
-      <c r="M16">
+      <c r="I16">
         <v>9.7100000000000009</v>
       </c>
-      <c r="N16" s="3">
-        <v>10.77</v>
-      </c>
-      <c r="O16">
-        <v>12.221499999999999</v>
-      </c>
-      <c r="P16" s="3">
+      <c r="J16" s="3">
         <v>11.1</v>
       </c>
-      <c r="Q16">
+      <c r="K16">
         <v>12.410499999999999</v>
       </c>
-      <c r="R16">
-        <f t="shared" si="0"/>
+      <c r="L16" s="25">
         <v>12.48</v>
       </c>
-      <c r="S16">
+      <c r="M16" s="25">
+        <v>19.55</v>
+      </c>
+      <c r="N16" s="25">
+        <v>26.020000000000003</v>
+      </c>
+      <c r="O16" s="25">
+        <v>25.220000000000002</v>
+      </c>
+      <c r="P16" s="25">
+        <v>23.449999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17">
         <f t="shared" si="1"/>
-        <v>19.55</v>
-      </c>
-      <c r="T16" s="25">
-        <v>26.020000000000003</v>
-      </c>
-      <c r="U16" s="25">
-        <v>25.220000000000002</v>
-      </c>
-      <c r="V16" s="25">
-        <v>23.449999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" s="9">
-        <v>11.308</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="F17" s="1">
+        <v>11.57</v>
+      </c>
+      <c r="G17" s="9">
+        <v>11.268000000000001</v>
+      </c>
+      <c r="H17">
+        <v>5.79</v>
+      </c>
+      <c r="I17">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="J17">
+        <v>10.51</v>
+      </c>
+      <c r="K17">
+        <v>11.711</v>
+      </c>
+      <c r="L17">
         <v>11.21</v>
       </c>
-      <c r="H17" s="1">
-        <v>11.57</v>
-      </c>
-      <c r="I17" s="9">
-        <v>11.268000000000001</v>
-      </c>
-      <c r="J17">
-        <v>5.79</v>
-      </c>
-      <c r="K17">
-        <v>5.42</v>
-      </c>
-      <c r="L17">
-        <v>8.7100000000000009</v>
-      </c>
       <c r="M17">
-        <v>9.0299999999999994</v>
+        <v>17.740000000000002</v>
       </c>
       <c r="N17">
-        <v>10.86</v>
+        <v>22.75</v>
       </c>
       <c r="O17">
-        <v>11.496</v>
+        <v>23.619999999999997</v>
       </c>
       <c r="P17">
-        <v>10.51</v>
-      </c>
-      <c r="Q17">
-        <v>11.711</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="0"/>
-        <v>11.21</v>
-      </c>
-      <c r="S17">
+        <v>22.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18">
         <f t="shared" si="1"/>
-        <v>17.740000000000002</v>
-      </c>
-      <c r="T17">
-        <v>22.75</v>
-      </c>
-      <c r="U17">
-        <v>23.619999999999997</v>
-      </c>
-      <c r="V17">
-        <v>22.35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
         <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="9">
-        <v>10.714</v>
-      </c>
-      <c r="G18" s="1">
-        <v>11.22</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="F18" s="1">
         <v>11.53</v>
       </c>
-      <c r="I18" s="9">
+      <c r="G18" s="9">
         <v>10.548</v>
       </c>
+      <c r="H18">
+        <v>5.35</v>
+      </c>
+      <c r="I18">
+        <v>8.89</v>
+      </c>
       <c r="J18">
-        <v>5.35</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="K18">
-        <v>5.46</v>
+        <v>11.3055</v>
       </c>
       <c r="L18">
-        <v>9.01</v>
+        <v>10.809999999999999</v>
       </c>
       <c r="M18">
-        <v>8.89</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="N18">
-        <v>10.34</v>
+        <v>22.73</v>
       </c>
       <c r="O18">
-        <v>11.452999999999999</v>
+        <v>23.6</v>
       </c>
       <c r="P18">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="Q18">
-        <v>11.3055</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="0"/>
-        <v>10.809999999999999</v>
-      </c>
-      <c r="S18">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19">
         <f t="shared" si="1"/>
-        <v>17.899999999999999</v>
-      </c>
-      <c r="T18">
-        <v>22.73</v>
-      </c>
-      <c r="U18">
-        <v>23.6</v>
-      </c>
-      <c r="V18">
-        <v>21.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
         <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="9">
-        <v>10.84</v>
-      </c>
-      <c r="G19" s="1">
-        <v>11.93</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="F19" s="1">
         <v>11.81</v>
       </c>
-      <c r="I19" s="9">
+      <c r="G19" s="9">
         <v>10.656000000000001</v>
       </c>
+      <c r="H19">
+        <v>5.69</v>
+      </c>
+      <c r="I19">
+        <v>8.19</v>
+      </c>
       <c r="J19">
-        <v>5.69</v>
+        <v>10.76</v>
       </c>
       <c r="K19">
-        <v>6.35</v>
+        <v>11.523</v>
       </c>
       <c r="L19">
-        <v>8.1999999999999993</v>
+        <v>12.04</v>
       </c>
       <c r="M19">
-        <v>8.19</v>
+        <v>16.39</v>
       </c>
       <c r="N19">
-        <v>10.49</v>
+        <v>24.78</v>
       </c>
       <c r="O19">
-        <v>11.359</v>
+        <v>22.87</v>
       </c>
       <c r="P19">
-        <v>10.76</v>
-      </c>
-      <c r="Q19">
-        <v>11.523</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="0"/>
-        <v>12.04</v>
-      </c>
-      <c r="S19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
         <f t="shared" si="1"/>
-        <v>16.39</v>
-      </c>
-      <c r="T19">
-        <v>24.78</v>
-      </c>
-      <c r="U19">
-        <v>22.87</v>
-      </c>
-      <c r="V19">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
-        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>41</v>
       </c>
       <c r="E20" s="19">
         <v>1</v>
       </c>
-      <c r="F20" s="21">
-        <v>10.624000000000001</v>
-      </c>
-      <c r="G20" s="20">
-        <v>10.37</v>
-      </c>
-      <c r="H20" s="20">
+      <c r="F20" s="20">
         <v>10.52</v>
       </c>
-      <c r="I20" s="21">
+      <c r="G20" s="21">
         <v>10.835000000000001</v>
       </c>
+      <c r="H20" s="19">
+        <v>6.46</v>
+      </c>
+      <c r="I20">
+        <v>9.11</v>
+      </c>
       <c r="J20" s="19">
-        <v>6.46</v>
-      </c>
-      <c r="K20" s="19">
-        <v>6.36</v>
-      </c>
-      <c r="L20">
-        <v>8.81</v>
-      </c>
-      <c r="M20">
-        <v>9.11</v>
+        <v>10.55</v>
+      </c>
+      <c r="K20">
+        <v>11.1035</v>
+      </c>
+      <c r="L20" s="19">
+        <v>12.82</v>
+      </c>
+      <c r="M20" s="19">
+        <v>17.920000000000002</v>
       </c>
       <c r="N20" s="19">
-        <v>10.32</v>
-      </c>
-      <c r="O20">
-        <v>11.213000000000001</v>
+        <v>25.74</v>
+      </c>
+      <c r="O20" s="19">
+        <v>22.55</v>
       </c>
       <c r="P20" s="19">
-        <v>10.55</v>
-      </c>
-      <c r="Q20">
-        <v>11.1035</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="0"/>
-        <v>12.82</v>
-      </c>
-      <c r="S20">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
         <f t="shared" si="1"/>
-        <v>17.920000000000002</v>
-      </c>
-      <c r="T20" s="19">
-        <v>25.74</v>
-      </c>
-      <c r="U20" s="19">
-        <v>22.55</v>
-      </c>
-      <c r="V20" s="19">
-        <v>21.45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>217</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="9">
-        <v>10.237</v>
-      </c>
-      <c r="G21" s="1">
-        <v>11.15</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="F21" s="1">
         <v>10.98</v>
       </c>
-      <c r="I21" s="9">
+      <c r="G21" s="9">
         <v>9.8629999999999995</v>
       </c>
-      <c r="J21">
+      <c r="H21">
         <v>5.66</v>
       </c>
+      <c r="I21">
+        <v>8.32</v>
+      </c>
+      <c r="J21" s="3">
+        <v>10.24</v>
+      </c>
       <c r="K21">
-        <v>5.72</v>
+        <v>10.806000000000001</v>
       </c>
       <c r="L21">
-        <v>8.2799999999999994</v>
+        <v>11.379999999999999</v>
       </c>
       <c r="M21">
-        <v>8.32</v>
-      </c>
-      <c r="N21" s="3">
-        <v>9.9600000000000009</v>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N21">
+        <v>23.589999999999996</v>
       </c>
       <c r="O21">
-        <v>10.5875</v>
-      </c>
-      <c r="P21" s="3">
-        <v>10.24</v>
-      </c>
-      <c r="Q21">
-        <v>10.806000000000001</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="0"/>
-        <v>11.379999999999999</v>
-      </c>
-      <c r="S21">
+        <v>21.96</v>
+      </c>
+      <c r="P21">
+        <v>20.329999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22">
         <f t="shared" si="1"/>
-        <v>16.600000000000001</v>
-      </c>
-      <c r="T21">
-        <v>23.589999999999996</v>
-      </c>
-      <c r="U21">
-        <v>21.96</v>
-      </c>
-      <c r="V21">
-        <v>20.329999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" t="s">
         <v>44</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="9">
-        <v>10.912000000000001</v>
-      </c>
-      <c r="G22" s="1">
-        <v>11.86</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="F22" s="1">
         <v>11.91</v>
       </c>
-      <c r="I22" s="9">
+      <c r="G22" s="9">
         <v>10.852</v>
       </c>
+      <c r="H22">
+        <v>5.72</v>
+      </c>
+      <c r="I22">
+        <v>8.7200000000000006</v>
+      </c>
       <c r="J22">
-        <v>5.72</v>
+        <v>10.88</v>
       </c>
       <c r="K22">
-        <v>5.75</v>
+        <v>11.4155</v>
       </c>
       <c r="L22">
-        <v>8.4</v>
+        <v>11.469999999999999</v>
       </c>
       <c r="M22">
-        <v>8.7200000000000006</v>
+        <v>17.12</v>
       </c>
       <c r="N22">
-        <v>10.51</v>
+        <v>24.65</v>
       </c>
       <c r="O22">
-        <v>12.047499999999999</v>
+        <v>24</v>
       </c>
       <c r="P22">
-        <v>10.88</v>
-      </c>
-      <c r="Q22">
-        <v>11.4155</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="0"/>
-        <v>11.469999999999999</v>
-      </c>
-      <c r="S22">
+        <v>22.490000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23">
         <f t="shared" si="1"/>
-        <v>17.12</v>
-      </c>
-      <c r="T22">
-        <v>24.65</v>
-      </c>
-      <c r="U22">
-        <v>24</v>
-      </c>
-      <c r="V22">
-        <v>22.490000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
         <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" s="9">
-        <v>11.489000000000001</v>
-      </c>
-      <c r="G23" s="1">
-        <v>11.88</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="F23" s="1">
         <v>12.13</v>
       </c>
-      <c r="I23" s="9">
+      <c r="G23" s="9">
         <v>11.768000000000001</v>
       </c>
+      <c r="H23">
+        <v>6.55</v>
+      </c>
+      <c r="I23">
+        <v>9.65</v>
+      </c>
       <c r="J23">
-        <v>6.55</v>
+        <v>11.25</v>
       </c>
       <c r="K23">
-        <v>6.71</v>
+        <v>12.028500000000001</v>
       </c>
       <c r="L23">
-        <v>9.6</v>
+        <v>13.26</v>
       </c>
       <c r="M23">
-        <v>9.65</v>
+        <v>19.25</v>
       </c>
       <c r="N23">
-        <v>10.97</v>
+        <v>26.779999999999998</v>
       </c>
       <c r="O23">
-        <v>12.055</v>
+        <v>24.189999999999998</v>
       </c>
       <c r="P23">
-        <v>11.25</v>
-      </c>
-      <c r="Q23">
-        <v>12.028500000000001</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="0"/>
-        <v>13.26</v>
-      </c>
-      <c r="S23">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24">
         <f t="shared" si="1"/>
-        <v>19.25</v>
-      </c>
-      <c r="T23">
-        <v>26.779999999999998</v>
-      </c>
-      <c r="U23">
-        <v>24.189999999999998</v>
-      </c>
-      <c r="V23">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
         <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" s="9">
-        <v>12.247</v>
-      </c>
-      <c r="G24" s="1">
-        <v>11.56</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="F24" s="1">
         <v>11.81</v>
       </c>
-      <c r="I24" s="9">
+      <c r="G24" s="9">
         <v>11.08</v>
       </c>
+      <c r="H24">
+        <v>5.61</v>
+      </c>
+      <c r="I24">
+        <v>8.94</v>
+      </c>
       <c r="J24">
-        <v>5.61</v>
+        <v>10.87</v>
       </c>
       <c r="K24">
-        <v>5.97</v>
+        <v>12.181000000000001</v>
       </c>
       <c r="L24">
-        <v>8.93</v>
+        <v>11.58</v>
       </c>
       <c r="M24">
-        <v>8.94</v>
+        <v>17.869999999999997</v>
       </c>
       <c r="N24">
-        <v>10.55</v>
+        <v>24.07</v>
       </c>
       <c r="O24">
-        <v>12.379000000000001</v>
+        <v>24.52</v>
       </c>
       <c r="P24">
-        <v>10.87</v>
-      </c>
-      <c r="Q24">
-        <v>12.181000000000001</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="0"/>
-        <v>11.58</v>
-      </c>
-      <c r="S24">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25">
         <f t="shared" si="1"/>
-        <v>17.869999999999997</v>
-      </c>
-      <c r="T24">
-        <v>24.07</v>
-      </c>
-      <c r="U24">
-        <v>24.52</v>
-      </c>
-      <c r="V24">
-        <v>23.18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="10">
-        <v>11.116</v>
-      </c>
-      <c r="G25" s="4">
-        <v>12.14</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="F25" s="4">
         <v>11.71</v>
       </c>
-      <c r="I25" s="10">
+      <c r="G25" s="10">
         <v>10.845000000000001</v>
       </c>
+      <c r="H25" s="3">
+        <v>5.52</v>
+      </c>
+      <c r="I25" s="3">
+        <v>8.89</v>
+      </c>
       <c r="J25" s="3">
-        <v>5.52</v>
-      </c>
-      <c r="K25" s="3">
-        <v>5.49</v>
+        <v>10.71</v>
+      </c>
+      <c r="K25">
+        <v>11.7285</v>
       </c>
       <c r="L25" s="3">
-        <v>9.1</v>
+        <v>11.01</v>
       </c>
       <c r="M25" s="3">
-        <v>8.89</v>
+        <v>17.990000000000002</v>
       </c>
       <c r="N25" s="3">
-        <v>10.47</v>
-      </c>
-      <c r="O25">
-        <v>11.846</v>
+        <v>23.200000000000003</v>
+      </c>
+      <c r="O25" s="3">
+        <v>23.46</v>
       </c>
       <c r="P25" s="3">
-        <v>10.71</v>
-      </c>
-      <c r="Q25">
-        <v>11.7285</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="0"/>
-        <v>11.01</v>
-      </c>
-      <c r="S25">
+        <v>21.490000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26">
         <f t="shared" si="1"/>
-        <v>17.990000000000002</v>
-      </c>
-      <c r="T25" s="3">
-        <v>23.200000000000003</v>
-      </c>
-      <c r="U25" s="3">
-        <v>23.46</v>
-      </c>
-      <c r="V25" s="3">
-        <v>21.490000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" s="9">
-        <v>10.266</v>
-      </c>
-      <c r="G26" s="1">
-        <v>11.73</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="F26" s="1">
         <v>11.16</v>
       </c>
-      <c r="I26" s="9">
+      <c r="G26" s="9">
         <v>11.195</v>
       </c>
+      <c r="H26">
+        <v>5.52</v>
+      </c>
+      <c r="I26">
+        <v>8.5</v>
+      </c>
       <c r="J26">
-        <v>5.52</v>
+        <v>10.91</v>
       </c>
       <c r="K26">
-        <v>5.53</v>
+        <v>11.623999999999999</v>
       </c>
       <c r="L26">
-        <v>8.0299999999999994</v>
+        <v>11.05</v>
       </c>
       <c r="M26">
-        <v>8.5</v>
+        <v>16.53</v>
       </c>
       <c r="N26">
-        <v>10.130000000000001</v>
+        <v>23.16</v>
       </c>
       <c r="O26">
-        <v>11.332000000000001</v>
+        <v>24.33</v>
       </c>
       <c r="P26">
-        <v>10.91</v>
-      </c>
-      <c r="Q26">
-        <v>11.623999999999999</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="0"/>
-        <v>11.05</v>
-      </c>
-      <c r="S26">
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27">
         <f t="shared" si="1"/>
-        <v>16.53</v>
-      </c>
-      <c r="T26">
-        <v>23.16</v>
-      </c>
-      <c r="U26">
-        <v>24.33</v>
-      </c>
-      <c r="V26">
-        <v>22.07</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" t="s">
         <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" t="s">
-        <v>55</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="9">
-        <v>10.771000000000001</v>
-      </c>
-      <c r="G27" s="1">
-        <v>10.8</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="F27" s="1">
         <v>10.74</v>
       </c>
-      <c r="I27" s="9">
+      <c r="G27" s="9">
         <v>9.9169999999999998</v>
       </c>
+      <c r="H27">
+        <v>5.55</v>
+      </c>
+      <c r="I27">
+        <v>9.48</v>
+      </c>
       <c r="J27">
-        <v>5.55</v>
+        <v>10.61</v>
       </c>
       <c r="K27">
-        <v>5.63</v>
+        <v>11.167</v>
       </c>
       <c r="L27">
-        <v>9.66</v>
+        <v>11.18</v>
       </c>
       <c r="M27">
-        <v>9.48</v>
+        <v>19.14</v>
       </c>
       <c r="N27">
-        <v>10.6</v>
+        <v>24.02</v>
       </c>
       <c r="O27">
-        <v>10.933</v>
+        <v>23.52</v>
       </c>
       <c r="P27">
-        <v>10.61</v>
-      </c>
-      <c r="Q27">
-        <v>11.167</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="0"/>
-        <v>11.18</v>
-      </c>
-      <c r="S27">
+        <v>21.77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28">
         <f t="shared" si="1"/>
-        <v>19.14</v>
-      </c>
-      <c r="T27">
-        <v>24.02</v>
-      </c>
-      <c r="U27">
-        <v>23.52</v>
-      </c>
-      <c r="V27">
-        <v>21.77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
         <v>56</v>
-      </c>
-      <c r="D28" t="s">
-        <v>57</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28" s="9">
-        <v>10.343</v>
-      </c>
-      <c r="G28" s="1">
-        <v>10.92</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="F28" s="1">
         <v>10.89</v>
       </c>
-      <c r="I28" s="9">
+      <c r="G28" s="9">
         <v>10.249000000000001</v>
       </c>
+      <c r="H28">
+        <v>5.66</v>
+      </c>
+      <c r="I28">
+        <v>8.61</v>
+      </c>
       <c r="J28">
-        <v>5.66</v>
+        <v>10.61</v>
       </c>
       <c r="K28">
-        <v>5.47</v>
+        <v>11.17</v>
       </c>
       <c r="L28">
-        <v>8.57</v>
+        <v>11.129999999999999</v>
       </c>
       <c r="M28">
-        <v>8.61</v>
+        <v>17.18</v>
       </c>
       <c r="N28">
-        <v>10.43</v>
+        <v>23.709999999999997</v>
       </c>
       <c r="O28">
-        <v>11.337499999999999</v>
+        <v>22.48</v>
       </c>
       <c r="P28">
-        <v>10.61</v>
-      </c>
-      <c r="Q28">
-        <v>11.17</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="0"/>
-        <v>11.129999999999999</v>
-      </c>
-      <c r="S28">
+        <v>21.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29">
         <f t="shared" si="1"/>
-        <v>17.18</v>
-      </c>
-      <c r="T28">
-        <v>23.709999999999997</v>
-      </c>
-      <c r="U28">
-        <v>22.48</v>
-      </c>
-      <c r="V28">
-        <v>21.87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
         <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>59</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="9">
-        <v>11.042999999999999</v>
-      </c>
-      <c r="G29" s="1">
-        <v>11.43</v>
-      </c>
-      <c r="H29" s="1">
+      <c r="F29" s="1">
         <v>11.84</v>
       </c>
-      <c r="I29" s="9">
+      <c r="G29" s="9">
         <v>10.401999999999999</v>
       </c>
+      <c r="H29">
+        <v>5.93</v>
+      </c>
+      <c r="I29">
+        <v>8.91</v>
+      </c>
       <c r="J29">
-        <v>5.93</v>
+        <v>10.19</v>
       </c>
       <c r="K29">
-        <v>5.7</v>
+        <v>11.836</v>
       </c>
       <c r="L29">
-        <v>9.5299999999999994</v>
+        <v>11.629999999999999</v>
       </c>
       <c r="M29">
-        <v>8.91</v>
+        <v>18.439999999999998</v>
       </c>
       <c r="N29">
-        <v>10.24</v>
+        <v>24.939999999999998</v>
       </c>
       <c r="O29">
-        <v>11.8805</v>
+        <v>23.869999999999997</v>
       </c>
       <c r="P29">
-        <v>10.19</v>
-      </c>
-      <c r="Q29">
-        <v>11.836</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="0"/>
-        <v>11.629999999999999</v>
-      </c>
-      <c r="S29">
+        <v>22.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30">
         <f t="shared" si="1"/>
-        <v>18.439999999999998</v>
-      </c>
-      <c r="T29">
-        <v>24.939999999999998</v>
-      </c>
-      <c r="U29">
-        <v>23.869999999999997</v>
-      </c>
-      <c r="V29">
-        <v>22.64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
-      <c r="F30" s="9">
-        <v>9.6340000000000003</v>
-      </c>
-      <c r="G30" s="1">
-        <v>11.21</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="F30" s="1">
         <v>11.03</v>
       </c>
-      <c r="I30" s="9">
+      <c r="G30" s="9">
         <v>10.69</v>
       </c>
+      <c r="H30">
+        <v>5.56</v>
+      </c>
+      <c r="I30">
+        <v>8.64</v>
+      </c>
       <c r="J30">
-        <v>5.56</v>
+        <v>10.06</v>
       </c>
       <c r="K30">
-        <v>5.46</v>
+        <v>11.2285</v>
       </c>
       <c r="L30">
-        <v>8.5299999999999994</v>
+        <v>11.02</v>
       </c>
       <c r="M30">
-        <v>8.64</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="N30">
-        <v>10.17</v>
+        <v>22.59</v>
       </c>
       <c r="O30">
-        <v>11.2455</v>
+        <v>22.71</v>
       </c>
       <c r="P30">
-        <v>10.06</v>
-      </c>
-      <c r="Q30">
-        <v>11.2285</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="0"/>
-        <v>11.02</v>
-      </c>
-      <c r="S30">
+        <v>20.010000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31">
         <f t="shared" si="1"/>
-        <v>17.170000000000002</v>
-      </c>
-      <c r="T30">
-        <v>22.59</v>
-      </c>
-      <c r="U30">
-        <v>22.71</v>
-      </c>
-      <c r="V30">
-        <v>20.010000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="10">
-        <v>11.397</v>
-      </c>
-      <c r="G31" s="4">
-        <v>12.34</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="F31" s="4">
         <v>11.96</v>
       </c>
-      <c r="I31" s="10">
+      <c r="G31" s="10">
         <v>11.481</v>
       </c>
+      <c r="H31" s="3">
+        <v>5.98</v>
+      </c>
+      <c r="I31" s="3">
+        <v>9.2899999999999991</v>
+      </c>
       <c r="J31" s="3">
-        <v>5.98</v>
-      </c>
-      <c r="K31" s="3">
-        <v>5.97</v>
+        <v>10.11</v>
+      </c>
+      <c r="K31">
+        <v>11.7225</v>
       </c>
       <c r="L31" s="3">
-        <v>9.1300000000000008</v>
+        <v>11.95</v>
       </c>
       <c r="M31" s="3">
-        <v>9.2899999999999991</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="N31" s="3">
-        <v>10.55</v>
-      </c>
-      <c r="O31">
-        <v>11.763</v>
+        <v>24.54</v>
+      </c>
+      <c r="O31" s="3">
+        <v>23.1</v>
       </c>
       <c r="P31" s="3">
-        <v>10.11</v>
-      </c>
-      <c r="Q31">
-        <v>11.7225</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="0"/>
-        <v>11.95</v>
-      </c>
-      <c r="S31">
+        <v>22.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32">
         <f t="shared" si="1"/>
-        <v>18.420000000000002</v>
-      </c>
-      <c r="T31" s="3">
-        <v>24.54</v>
-      </c>
-      <c r="U31" s="3">
-        <v>23.1</v>
-      </c>
-      <c r="V31" s="3">
-        <v>22.45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
-      <c r="F32" s="10">
-        <v>11.295</v>
-      </c>
-      <c r="G32" s="4">
-        <v>11.49</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="F32" s="4">
         <v>11.2</v>
       </c>
-      <c r="I32" s="10">
+      <c r="G32" s="10">
         <v>11.347</v>
       </c>
+      <c r="H32" s="3">
+        <v>6.13</v>
+      </c>
+      <c r="I32" s="3">
+        <v>9.26</v>
+      </c>
       <c r="J32" s="3">
-        <v>6.13</v>
-      </c>
-      <c r="K32" s="3">
-        <v>6</v>
+        <v>10.59</v>
+      </c>
+      <c r="K32">
+        <v>11.673500000000001</v>
       </c>
       <c r="L32" s="3">
-        <v>9.4600000000000009</v>
+        <v>12.129999999999999</v>
       </c>
       <c r="M32" s="3">
-        <v>9.26</v>
+        <v>18.72</v>
       </c>
       <c r="N32" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="O32">
-        <v>11.884</v>
+        <v>25.79</v>
+      </c>
+      <c r="O32" s="3">
+        <v>23.919999999999998</v>
       </c>
       <c r="P32" s="3">
-        <v>10.59</v>
-      </c>
-      <c r="Q32">
-        <v>11.673500000000001</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="0"/>
-        <v>12.129999999999999</v>
-      </c>
-      <c r="S32">
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33">
         <f t="shared" si="1"/>
-        <v>18.72</v>
-      </c>
-      <c r="T32" s="3">
-        <v>25.79</v>
-      </c>
-      <c r="U32" s="3">
-        <v>23.919999999999998</v>
-      </c>
-      <c r="V32" s="3">
-        <v>21.79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" s="9">
-        <v>9.6890000000000001</v>
-      </c>
-      <c r="G33" s="1">
-        <v>11.34</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="F33" s="1">
         <v>11.2</v>
       </c>
-      <c r="I33" s="9">
+      <c r="G33" s="9">
         <v>10.646000000000001</v>
       </c>
+      <c r="H33">
+        <v>5.16</v>
+      </c>
+      <c r="I33">
+        <v>8.2100000000000009</v>
+      </c>
       <c r="J33">
-        <v>5.16</v>
+        <v>9.35</v>
       </c>
       <c r="K33">
-        <v>5.3</v>
+        <v>11.288499999999999</v>
       </c>
       <c r="L33">
-        <v>8.43</v>
+        <v>10.46</v>
       </c>
       <c r="M33">
-        <v>8.2100000000000009</v>
+        <v>16.64</v>
       </c>
       <c r="N33">
-        <v>9.1</v>
+        <v>22</v>
       </c>
       <c r="O33">
-        <v>11.6395</v>
+        <v>21.7</v>
       </c>
       <c r="P33">
-        <v>9.35</v>
-      </c>
-      <c r="Q33">
-        <v>11.288499999999999</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="0"/>
-        <v>10.46</v>
-      </c>
-      <c r="S33">
+        <v>20.72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34">
         <f t="shared" si="1"/>
-        <v>16.64</v>
-      </c>
-      <c r="T33">
-        <v>22</v>
-      </c>
-      <c r="U33">
-        <v>21.7</v>
-      </c>
-      <c r="V33">
-        <v>20.72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F34" s="9">
-        <v>10.733000000000001</v>
-      </c>
-      <c r="G34" s="1">
-        <v>11.03</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="F34" s="1">
         <v>11.27</v>
       </c>
-      <c r="I34" s="9">
+      <c r="G34" s="9">
         <v>11.118</v>
       </c>
+      <c r="H34">
+        <v>6.4</v>
+      </c>
+      <c r="I34">
+        <v>9.02</v>
+      </c>
       <c r="J34">
-        <v>6.4</v>
+        <v>11.42</v>
       </c>
       <c r="K34">
-        <v>6.35</v>
+        <v>11.818</v>
       </c>
       <c r="L34">
-        <v>8.86</v>
+        <v>12.75</v>
       </c>
       <c r="M34">
-        <v>9.02</v>
+        <v>17.88</v>
       </c>
       <c r="N34">
-        <v>11.63</v>
+        <v>26.69</v>
       </c>
       <c r="O34">
-        <v>11.766500000000001</v>
+        <v>22.759999999999998</v>
       </c>
       <c r="P34">
-        <v>11.42</v>
-      </c>
-      <c r="Q34">
-        <v>11.818</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="0"/>
-        <v>12.75</v>
-      </c>
-      <c r="S34">
+        <v>21.64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35">
         <f t="shared" si="1"/>
-        <v>17.88</v>
-      </c>
-      <c r="T34">
-        <v>26.69</v>
-      </c>
-      <c r="U34">
-        <v>22.759999999999998</v>
-      </c>
-      <c r="V34">
-        <v>21.64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
       <c r="D35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" s="9">
-        <v>10.27</v>
-      </c>
-      <c r="G35" s="1">
-        <v>12.64</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="F35" s="1">
         <v>12.24</v>
       </c>
-      <c r="I35" s="9">
+      <c r="G35" s="9">
         <v>10.372</v>
       </c>
+      <c r="H35">
+        <v>6.32</v>
+      </c>
+      <c r="I35">
+        <v>9.51</v>
+      </c>
       <c r="J35">
-        <v>6.32</v>
+        <v>11.87</v>
       </c>
       <c r="K35">
-        <v>6.01</v>
+        <v>11.902000000000001</v>
       </c>
       <c r="L35">
-        <v>9.56</v>
+        <v>12.33</v>
       </c>
       <c r="M35">
-        <v>9.51</v>
+        <v>19.07</v>
       </c>
       <c r="N35">
-        <v>11.48</v>
+        <v>25.71</v>
       </c>
       <c r="O35">
-        <v>11.483000000000001</v>
+        <v>24.770000000000003</v>
       </c>
       <c r="P35">
-        <v>11.87</v>
-      </c>
-      <c r="Q35">
-        <v>11.902000000000001</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="0"/>
-        <v>12.33</v>
-      </c>
-      <c r="S35">
+        <v>23.68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36">
         <f t="shared" si="1"/>
-        <v>19.07</v>
-      </c>
-      <c r="T35">
-        <v>25.71</v>
-      </c>
-      <c r="U35">
-        <v>24.770000000000003</v>
-      </c>
-      <c r="V35">
-        <v>23.68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
         <v>71</v>
-      </c>
-      <c r="D36" t="s">
-        <v>72</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" s="9">
-        <v>11.923999999999999</v>
-      </c>
-      <c r="G36" s="1">
-        <v>11.26</v>
-      </c>
-      <c r="H36" s="1">
+      <c r="F36" s="1">
         <v>11.49</v>
       </c>
-      <c r="I36" s="9">
+      <c r="G36" s="9">
         <v>11.987</v>
       </c>
+      <c r="H36">
+        <v>5.55</v>
+      </c>
+      <c r="I36">
+        <v>9.11</v>
+      </c>
       <c r="J36">
-        <v>5.55</v>
+        <v>11.14</v>
       </c>
       <c r="K36">
-        <v>5.66</v>
+        <v>12.6295</v>
       </c>
       <c r="L36">
-        <v>8.7799999999999994</v>
+        <v>11.21</v>
       </c>
       <c r="M36">
-        <v>9.11</v>
+        <v>17.89</v>
       </c>
       <c r="N36">
-        <v>10.93</v>
+        <v>24.09</v>
       </c>
       <c r="O36">
-        <v>12.370000000000001</v>
+        <v>24.34</v>
       </c>
       <c r="P36">
-        <v>11.14</v>
-      </c>
-      <c r="Q36">
-        <v>12.6295</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="0"/>
-        <v>11.21</v>
-      </c>
-      <c r="S36">
+        <v>22.82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37">
         <f t="shared" si="1"/>
-        <v>17.89</v>
-      </c>
-      <c r="T36">
-        <v>24.09</v>
-      </c>
-      <c r="U36">
-        <v>24.34</v>
-      </c>
-      <c r="V36">
-        <v>22.82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
         <v>73</v>
-      </c>
-      <c r="D37" t="s">
-        <v>74</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" s="9">
-        <v>10.067</v>
-      </c>
-      <c r="G37" s="1">
-        <v>11.24</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="F37" s="1">
         <v>11.15</v>
       </c>
-      <c r="I37" s="9">
+      <c r="G37" s="9">
         <v>11.263</v>
       </c>
+      <c r="H37">
+        <v>5.88</v>
+      </c>
+      <c r="I37">
+        <v>8.4499999999999993</v>
+      </c>
       <c r="J37">
-        <v>5.88</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="K37">
-        <v>5.66</v>
+        <v>11.1555</v>
       </c>
       <c r="L37">
-        <v>8.66</v>
+        <v>11.54</v>
       </c>
       <c r="M37">
-        <v>8.4499999999999993</v>
+        <v>17.11</v>
       </c>
       <c r="N37">
-        <v>10.45</v>
+        <v>23.75</v>
       </c>
       <c r="O37">
-        <v>11.0905</v>
+        <v>24.080000000000002</v>
       </c>
       <c r="P37">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="Q37">
-        <v>11.1555</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="0"/>
-        <v>11.54</v>
-      </c>
-      <c r="S37">
+        <v>22.98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38">
         <f t="shared" si="1"/>
-        <v>17.11</v>
-      </c>
-      <c r="T37">
-        <v>23.75</v>
-      </c>
-      <c r="U37">
-        <v>24.080000000000002</v>
-      </c>
-      <c r="V37">
-        <v>22.98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" t="s">
         <v>75</v>
-      </c>
-      <c r="C38" t="s">
-        <v>228</v>
-      </c>
-      <c r="D38" t="s">
-        <v>76</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="9">
-        <v>12.14</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="F38" s="1">
+        <v>12.18</v>
+      </c>
+      <c r="G38" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="H38">
+        <v>6.23</v>
+      </c>
+      <c r="I38">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="J38">
+        <v>11.7</v>
+      </c>
+      <c r="K38">
+        <v>12.667</v>
+      </c>
+      <c r="L38">
         <v>12.16</v>
       </c>
-      <c r="H38" s="1">
-        <v>12.18</v>
-      </c>
-      <c r="I38" s="9">
-        <v>11.9</v>
-      </c>
-      <c r="J38">
-        <v>6.23</v>
-      </c>
-      <c r="K38">
-        <v>5.93</v>
-      </c>
-      <c r="L38">
-        <v>9.9600000000000009</v>
-      </c>
       <c r="M38">
-        <v>9.7200000000000006</v>
+        <v>19.68</v>
       </c>
       <c r="N38">
-        <v>11.93</v>
+        <v>25.31</v>
       </c>
       <c r="O38">
-        <v>12.6965</v>
+        <v>25.57</v>
       </c>
       <c r="P38">
-        <v>11.7</v>
-      </c>
-      <c r="Q38">
-        <v>12.667</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="0"/>
-        <v>12.16</v>
-      </c>
-      <c r="S38">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39">
         <f t="shared" si="1"/>
-        <v>19.68</v>
-      </c>
-      <c r="T38">
-        <v>25.31</v>
-      </c>
-      <c r="U38">
-        <v>25.57</v>
-      </c>
-      <c r="V38">
-        <v>24.95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
       </c>
-      <c r="F39" s="10">
-        <v>11.872999999999999</v>
-      </c>
-      <c r="G39" s="4">
-        <v>11.52</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="F39" s="4">
         <v>11.76</v>
       </c>
-      <c r="I39" s="10">
+      <c r="G39" s="10">
         <v>11.612</v>
       </c>
+      <c r="H39" s="3">
+        <v>6.04</v>
+      </c>
+      <c r="I39" s="3">
+        <v>9.39</v>
+      </c>
       <c r="J39" s="3">
-        <v>6.04</v>
-      </c>
-      <c r="K39" s="3">
-        <v>6.23</v>
+        <v>11.29</v>
+      </c>
+      <c r="K39">
+        <v>11.561500000000001</v>
       </c>
       <c r="L39" s="3">
-        <v>9.26</v>
+        <v>12.27</v>
       </c>
       <c r="M39" s="3">
-        <v>9.39</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="N39" s="3">
-        <v>11</v>
-      </c>
-      <c r="O39">
-        <v>11.684000000000001</v>
+        <v>25.64</v>
+      </c>
+      <c r="O39" s="3">
+        <v>24.68</v>
       </c>
       <c r="P39" s="3">
-        <v>11.29</v>
-      </c>
-      <c r="Q39">
-        <v>11.561500000000001</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="0"/>
-        <v>12.27</v>
-      </c>
-      <c r="S39">
+        <v>23.349999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40">
         <f t="shared" si="1"/>
-        <v>18.649999999999999</v>
-      </c>
-      <c r="T39" s="3">
-        <v>25.64</v>
-      </c>
-      <c r="U39" s="3">
-        <v>24.68</v>
-      </c>
-      <c r="V39" s="3">
-        <v>23.349999999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
       </c>
-      <c r="F40" s="9">
-        <v>10.455</v>
-      </c>
-      <c r="G40" s="1">
-        <v>10.29</v>
-      </c>
-      <c r="H40" s="1">
+      <c r="F40" s="1">
         <v>10.5</v>
       </c>
-      <c r="I40" s="9">
+      <c r="G40" s="9">
         <v>10.336</v>
       </c>
+      <c r="H40">
+        <v>5.3</v>
+      </c>
+      <c r="I40">
+        <v>8.56</v>
+      </c>
       <c r="J40">
-        <v>5.3</v>
+        <v>10.1</v>
       </c>
       <c r="K40">
-        <v>5.07</v>
+        <v>11.058</v>
       </c>
       <c r="L40">
-        <v>8.52</v>
+        <v>10.370000000000001</v>
       </c>
       <c r="M40">
-        <v>8.56</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="N40">
-        <v>10.17</v>
+        <v>22.01</v>
       </c>
       <c r="O40">
-        <v>11.080500000000001</v>
+        <v>21.91</v>
       </c>
       <c r="P40">
-        <v>10.1</v>
-      </c>
-      <c r="Q40">
-        <v>11.058</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="0"/>
-        <v>10.370000000000001</v>
-      </c>
-      <c r="S40">
+        <v>21.56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41">
         <f t="shared" si="1"/>
-        <v>17.079999999999998</v>
-      </c>
-      <c r="T40">
-        <v>22.01</v>
-      </c>
-      <c r="U40">
-        <v>21.91</v>
-      </c>
-      <c r="V40">
-        <v>21.56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41"/>
       <c r="D41" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
-      <c r="F41" s="11">
-        <v>10.808999999999999</v>
-      </c>
-      <c r="G41" s="8">
+      <c r="F41" s="8">
         <v>11.42</v>
       </c>
-      <c r="H41" s="8">
-        <v>11.42</v>
-      </c>
-      <c r="I41" s="11">
+      <c r="G41" s="11">
         <v>10.957000000000001</v>
       </c>
+      <c r="H41" s="7">
+        <v>5.14</v>
+      </c>
+      <c r="I41" s="7">
+        <v>8.3699999999999992</v>
+      </c>
       <c r="J41" s="7">
-        <v>5.14</v>
-      </c>
-      <c r="K41" s="7">
-        <v>4.8600000000000003</v>
+        <v>11.15</v>
+      </c>
+      <c r="K41">
+        <v>11.291</v>
       </c>
       <c r="L41" s="7">
-        <v>8.42</v>
+        <v>10</v>
       </c>
       <c r="M41" s="7">
-        <v>8.3699999999999992</v>
+        <v>16.79</v>
       </c>
       <c r="N41" s="7">
-        <v>11.7</v>
-      </c>
-      <c r="O41">
-        <v>11.1805</v>
+        <v>22.54</v>
+      </c>
+      <c r="O41" s="7">
+        <v>23.08</v>
       </c>
       <c r="P41" s="7">
-        <v>11.15</v>
-      </c>
-      <c r="Q41">
-        <v>11.291</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="S41">
+        <v>20.97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42">
         <f t="shared" si="1"/>
-        <v>16.79</v>
-      </c>
-      <c r="T41" s="7">
-        <v>22.54</v>
-      </c>
-      <c r="U41" s="7">
-        <v>23.08</v>
-      </c>
-      <c r="V41" s="7">
-        <v>20.97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
         <v>83</v>
-      </c>
-      <c r="D42" t="s">
-        <v>84</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
-      <c r="F42" s="9">
-        <v>11.617000000000001</v>
-      </c>
-      <c r="G42" s="1">
-        <v>12.16</v>
-      </c>
-      <c r="H42" s="1">
+      <c r="F42" s="1">
         <v>12.4</v>
       </c>
-      <c r="I42" s="9">
+      <c r="G42" s="9">
         <v>11.685</v>
       </c>
+      <c r="H42">
+        <v>5.87</v>
+      </c>
+      <c r="I42">
+        <v>9.11</v>
+      </c>
       <c r="J42">
-        <v>5.87</v>
-      </c>
-      <c r="K42" s="2">
-        <v>5.85</v>
+        <v>11.35</v>
+      </c>
+      <c r="K42">
+        <v>11.95</v>
       </c>
       <c r="L42">
-        <v>9.15</v>
+        <v>11.719999999999999</v>
       </c>
       <c r="M42">
-        <v>9.11</v>
+        <v>18.259999999999998</v>
       </c>
       <c r="N42">
-        <v>11.75</v>
+        <v>24.42</v>
       </c>
       <c r="O42">
-        <v>11.5425</v>
+        <v>25.099999999999998</v>
       </c>
       <c r="P42">
-        <v>11.35</v>
-      </c>
-      <c r="Q42">
-        <v>11.95</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="0"/>
-        <v>11.719999999999999</v>
-      </c>
-      <c r="S42">
+        <v>23.74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43">
         <f t="shared" si="1"/>
-        <v>18.259999999999998</v>
-      </c>
-      <c r="T42">
-        <v>24.42</v>
-      </c>
-      <c r="U42">
-        <v>25.099999999999998</v>
-      </c>
-      <c r="V42">
-        <v>23.74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
         <v>85</v>
-      </c>
-      <c r="D43" t="s">
-        <v>86</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" s="9">
-        <v>10.233000000000001</v>
-      </c>
-      <c r="G43" s="1">
-        <v>11.11</v>
-      </c>
-      <c r="H43" s="1">
+      <c r="F43" s="1">
         <v>11.46</v>
       </c>
-      <c r="I43" s="9">
+      <c r="G43" s="9">
         <v>10.101000000000001</v>
       </c>
+      <c r="H43">
+        <v>5.19</v>
+      </c>
+      <c r="I43">
+        <v>8.39</v>
+      </c>
       <c r="J43">
-        <v>5.19</v>
+        <v>10.48</v>
       </c>
       <c r="K43">
-        <v>5.27</v>
+        <v>11.281500000000001</v>
       </c>
       <c r="L43">
-        <v>8.5</v>
+        <v>10.46</v>
       </c>
       <c r="M43">
-        <v>8.39</v>
+        <v>16.89</v>
       </c>
       <c r="N43">
-        <v>10.7</v>
+        <v>22.57</v>
       </c>
       <c r="O43">
-        <v>11.486499999999999</v>
+        <v>22.73</v>
       </c>
       <c r="P43">
-        <v>10.48</v>
-      </c>
-      <c r="Q43">
-        <v>11.281500000000001</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="0"/>
-        <v>10.46</v>
-      </c>
-      <c r="S43">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44">
         <f t="shared" si="1"/>
-        <v>16.89</v>
-      </c>
-      <c r="T43">
-        <v>22.57</v>
-      </c>
-      <c r="U43">
-        <v>22.73</v>
-      </c>
-      <c r="V43">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" s="9">
-        <v>11.004</v>
-      </c>
-      <c r="G44" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="H44" s="1">
+      <c r="F44" s="1">
         <v>10.64</v>
       </c>
-      <c r="I44" s="9">
+      <c r="G44" s="9">
         <v>10.746</v>
       </c>
+      <c r="H44">
+        <v>5.65</v>
+      </c>
+      <c r="I44">
+        <v>8.09</v>
+      </c>
       <c r="J44">
-        <v>5.65</v>
+        <v>10.85</v>
       </c>
       <c r="K44">
-        <v>5.47</v>
+        <v>12.044</v>
       </c>
       <c r="L44">
-        <v>8.4700000000000006</v>
+        <v>11.120000000000001</v>
       </c>
       <c r="M44">
-        <v>8.09</v>
+        <v>16.560000000000002</v>
       </c>
       <c r="N44">
-        <v>11.67</v>
+        <v>23.32</v>
       </c>
       <c r="O44">
-        <v>12.070499999999999</v>
+        <v>23.37</v>
       </c>
       <c r="P44">
-        <v>10.85</v>
-      </c>
-      <c r="Q44">
-        <v>12.044</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="0"/>
-        <v>11.120000000000001</v>
-      </c>
-      <c r="S44">
+        <v>23.090000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45">
         <f t="shared" si="1"/>
-        <v>16.560000000000002</v>
-      </c>
-      <c r="T44">
-        <v>23.32</v>
-      </c>
-      <c r="U44">
-        <v>23.37</v>
-      </c>
-      <c r="V44">
-        <v>23.090000000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>90</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" s="9">
-        <v>11.721</v>
-      </c>
-      <c r="G45" s="1">
-        <v>11.66</v>
-      </c>
-      <c r="H45" s="1">
+      <c r="F45" s="1">
         <v>11.85</v>
       </c>
-      <c r="I45" s="9">
+      <c r="G45" s="9">
         <v>11.977</v>
       </c>
+      <c r="H45">
+        <v>5.92</v>
+      </c>
+      <c r="I45">
+        <v>9.11</v>
+      </c>
       <c r="J45">
-        <v>5.92</v>
+        <v>11.07</v>
       </c>
       <c r="K45">
-        <v>5.82</v>
+        <v>12.029</v>
       </c>
       <c r="L45">
-        <v>9.11</v>
+        <v>11.74</v>
       </c>
       <c r="M45">
-        <v>9.11</v>
+        <v>18.22</v>
       </c>
       <c r="N45">
-        <v>11.02</v>
+        <v>25.240000000000002</v>
       </c>
       <c r="O45">
-        <v>11.965</v>
+        <v>23.740000000000002</v>
       </c>
       <c r="P45">
-        <v>11.07</v>
-      </c>
-      <c r="Q45">
-        <v>12.029</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="0"/>
-        <v>11.74</v>
-      </c>
-      <c r="S45">
+        <v>23.62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46">
         <f t="shared" si="1"/>
-        <v>18.22</v>
-      </c>
-      <c r="T45">
-        <v>25.240000000000002</v>
-      </c>
-      <c r="U45">
-        <v>23.740000000000002</v>
-      </c>
-      <c r="V45">
-        <v>23.62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
         <v>91</v>
-      </c>
-      <c r="D46" t="s">
-        <v>92</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46" s="9">
-        <v>11.851000000000001</v>
-      </c>
-      <c r="G46" s="1">
-        <v>11.34</v>
-      </c>
-      <c r="H46" s="1">
+      <c r="F46" s="1">
         <v>11.52</v>
       </c>
-      <c r="I46" s="9">
+      <c r="G46" s="9">
         <v>11.032</v>
       </c>
+      <c r="H46">
+        <v>5.37</v>
+      </c>
+      <c r="I46">
+        <v>8.9600000000000009</v>
+      </c>
       <c r="J46">
-        <v>5.37</v>
+        <v>11.5</v>
       </c>
       <c r="K46">
-        <v>5.75</v>
+        <v>11.798500000000001</v>
       </c>
       <c r="L46">
-        <v>9.0299999999999994</v>
+        <v>11.120000000000001</v>
       </c>
       <c r="M46">
-        <v>8.9600000000000009</v>
+        <v>17.990000000000002</v>
       </c>
       <c r="N46">
-        <v>11.55</v>
+        <v>23.950000000000003</v>
       </c>
       <c r="O46">
-        <v>11.785</v>
+        <v>24.25</v>
       </c>
       <c r="P46">
-        <v>11.5</v>
-      </c>
-      <c r="Q46">
-        <v>11.798500000000001</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="0"/>
-        <v>11.120000000000001</v>
-      </c>
-      <c r="S46">
+        <v>23.14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47">
         <f t="shared" si="1"/>
-        <v>17.990000000000002</v>
-      </c>
-      <c r="T46">
-        <v>23.950000000000003</v>
-      </c>
-      <c r="U46">
-        <v>24.25</v>
-      </c>
-      <c r="V46">
-        <v>23.14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
         <v>93</v>
-      </c>
-      <c r="D47" t="s">
-        <v>94</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="1">
+        <v>11.79</v>
+      </c>
+      <c r="G47" s="9">
         <v>11.242000000000001</v>
       </c>
-      <c r="G47" s="1">
-        <v>11.97</v>
-      </c>
-      <c r="H47" s="1">
-        <v>11.79</v>
-      </c>
-      <c r="I47" s="9">
-        <v>11.242000000000001</v>
+      <c r="H47">
+        <v>5.53</v>
+      </c>
+      <c r="I47">
+        <v>8.44</v>
       </c>
       <c r="J47">
-        <v>5.53</v>
+        <v>11.23</v>
       </c>
       <c r="K47">
-        <v>5.66</v>
+        <v>11.5055</v>
       </c>
       <c r="L47">
-        <v>8.14</v>
+        <v>11.190000000000001</v>
       </c>
       <c r="M47">
-        <v>8.44</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="N47">
-        <v>10.92</v>
+        <v>23.580000000000002</v>
       </c>
       <c r="O47">
-        <v>11.8775</v>
+        <v>23.8</v>
       </c>
       <c r="P47">
-        <v>11.23</v>
-      </c>
-      <c r="Q47">
-        <v>11.5055</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="0"/>
-        <v>11.190000000000001</v>
-      </c>
-      <c r="S47">
+        <v>23.009999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48">
         <f t="shared" si="1"/>
-        <v>16.579999999999998</v>
-      </c>
-      <c r="T47">
-        <v>23.580000000000002</v>
-      </c>
-      <c r="U47">
-        <v>23.8</v>
-      </c>
-      <c r="V47">
-        <v>23.009999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E48" s="2">
         <v>2</v>
       </c>
-      <c r="F48" s="9">
-        <v>11.61</v>
-      </c>
-      <c r="G48" s="1">
-        <v>12.49</v>
-      </c>
-      <c r="H48" s="1">
+      <c r="F48" s="1">
         <v>12.56</v>
       </c>
-      <c r="I48" s="9">
+      <c r="G48" s="9">
         <v>11.692</v>
       </c>
+      <c r="H48">
+        <v>5.76</v>
+      </c>
+      <c r="I48">
+        <v>9.68</v>
+      </c>
       <c r="J48">
-        <v>5.76</v>
+        <v>11.55</v>
       </c>
       <c r="K48">
-        <v>6.02</v>
+        <v>12.634</v>
       </c>
       <c r="L48">
-        <v>9.82</v>
+        <v>11.78</v>
       </c>
       <c r="M48">
-        <v>9.68</v>
+        <v>19.5</v>
       </c>
       <c r="N48">
-        <v>11.96</v>
+        <v>24.349999999999998</v>
       </c>
       <c r="O48">
-        <v>12.659500000000001</v>
+        <v>24.819999999999997</v>
       </c>
       <c r="P48">
-        <v>11.55</v>
-      </c>
-      <c r="Q48">
-        <v>12.634</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="0"/>
-        <v>11.78</v>
-      </c>
-      <c r="S48">
+        <v>23.61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49">
         <f t="shared" si="1"/>
-        <v>19.5</v>
-      </c>
-      <c r="T48">
-        <v>24.349999999999998</v>
-      </c>
-      <c r="U48">
-        <v>24.819999999999997</v>
-      </c>
-      <c r="V48">
-        <v>23.61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" t="s">
         <v>97</v>
-      </c>
-      <c r="C49" t="s">
-        <v>208</v>
-      </c>
-      <c r="D49" t="s">
-        <v>98</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
-      <c r="F49" s="9">
-        <v>11.63</v>
-      </c>
-      <c r="G49" s="1">
-        <v>12.89</v>
-      </c>
-      <c r="H49" s="1">
+      <c r="F49" s="1">
         <v>12.65</v>
       </c>
-      <c r="I49" s="9">
+      <c r="G49" s="9">
         <v>10.592000000000001</v>
       </c>
+      <c r="H49">
+        <v>5.76</v>
+      </c>
+      <c r="I49">
+        <v>8.99</v>
+      </c>
       <c r="J49">
-        <v>5.76</v>
+        <v>12.18</v>
       </c>
       <c r="K49">
-        <v>5.7</v>
+        <v>12.401</v>
       </c>
       <c r="L49">
-        <v>8.7799999999999994</v>
+        <v>11.46</v>
       </c>
       <c r="M49">
-        <v>8.99</v>
+        <v>17.77</v>
       </c>
       <c r="N49">
-        <v>11.79</v>
+        <v>24.59</v>
       </c>
       <c r="O49">
-        <v>12.342499999999999</v>
+        <v>24.080000000000002</v>
       </c>
       <c r="P49">
-        <v>12.18</v>
-      </c>
-      <c r="Q49">
-        <v>12.401</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="0"/>
-        <v>11.46</v>
-      </c>
-      <c r="S49">
+        <v>25.14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50">
         <f t="shared" si="1"/>
-        <v>17.77</v>
-      </c>
-      <c r="T49">
-        <v>24.59</v>
-      </c>
-      <c r="U49">
-        <v>24.080000000000002</v>
-      </c>
-      <c r="V49">
-        <v>25.14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
       </c>
-      <c r="F50" s="9">
-        <v>10.603</v>
-      </c>
-      <c r="G50" s="1">
-        <v>10.53</v>
-      </c>
-      <c r="H50" s="1">
+      <c r="F50" s="1">
         <v>10.48</v>
       </c>
-      <c r="I50" s="9">
+      <c r="G50" s="9">
         <v>10.529</v>
       </c>
+      <c r="H50">
+        <v>5.25</v>
+      </c>
+      <c r="I50">
+        <v>8.19</v>
+      </c>
       <c r="J50">
-        <v>5.25</v>
+        <v>10.18</v>
       </c>
       <c r="K50">
-        <v>5.42</v>
+        <v>11.170999999999999</v>
       </c>
       <c r="L50">
-        <v>8.4499999999999993</v>
+        <v>10.67</v>
       </c>
       <c r="M50">
-        <v>8.19</v>
+        <v>16.64</v>
       </c>
       <c r="N50">
-        <v>10.17</v>
+        <v>23.5</v>
       </c>
       <c r="O50">
-        <v>11.094000000000001</v>
+        <v>22.78</v>
       </c>
       <c r="P50">
-        <v>10.18</v>
-      </c>
-      <c r="Q50">
-        <v>11.170999999999999</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="0"/>
-        <v>10.67</v>
-      </c>
-      <c r="S50">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51">
         <f t="shared" si="1"/>
-        <v>16.64</v>
-      </c>
-      <c r="T50">
-        <v>23.5</v>
-      </c>
-      <c r="U50">
-        <v>22.78</v>
-      </c>
-      <c r="V50">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51"/>
       <c r="D51" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" s="11">
-        <v>11.301</v>
-      </c>
-      <c r="G51" s="8">
-        <v>11.64</v>
-      </c>
-      <c r="H51" s="8">
+      <c r="F51" s="8">
         <v>11.81</v>
       </c>
-      <c r="I51" s="11">
+      <c r="G51" s="11">
         <v>11.33</v>
       </c>
+      <c r="H51" s="7">
+        <v>5.69</v>
+      </c>
+      <c r="I51" s="7">
+        <v>8.66</v>
+      </c>
       <c r="J51" s="7">
-        <v>5.69</v>
-      </c>
-      <c r="K51" s="7">
-        <v>5.75</v>
+        <v>11.13</v>
+      </c>
+      <c r="K51">
+        <v>12.1195</v>
       </c>
       <c r="L51" s="7">
-        <v>8.67</v>
+        <v>11.440000000000001</v>
       </c>
       <c r="M51" s="7">
-        <v>8.66</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="N51" s="7">
-        <v>11.59</v>
-      </c>
-      <c r="O51">
-        <v>11.8255</v>
+        <v>24.13</v>
+      </c>
+      <c r="O51" s="7">
+        <v>24.06</v>
       </c>
       <c r="P51" s="7">
-        <v>11.13</v>
-      </c>
-      <c r="Q51">
-        <v>12.1195</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="0"/>
-        <v>11.440000000000001</v>
-      </c>
-      <c r="S51">
+        <v>23.77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52">
         <f t="shared" si="1"/>
-        <v>17.329999999999998</v>
-      </c>
-      <c r="T51" s="7">
-        <v>24.13</v>
-      </c>
-      <c r="U51" s="7">
-        <v>24.06</v>
-      </c>
-      <c r="V51" s="7">
-        <v>23.77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
       </c>
-      <c r="F52" s="9">
-        <v>10.566000000000001</v>
-      </c>
-      <c r="G52" s="1">
-        <v>11.4</v>
-      </c>
-      <c r="H52" s="1">
+      <c r="F52" s="1">
         <v>11.03</v>
       </c>
-      <c r="I52" s="9">
+      <c r="G52" s="9">
         <v>10.644</v>
       </c>
+      <c r="H52">
+        <v>5.73</v>
+      </c>
+      <c r="I52">
+        <v>8.26</v>
+      </c>
       <c r="J52">
-        <v>5.73</v>
+        <v>10.67</v>
       </c>
       <c r="K52">
-        <v>5.68</v>
+        <v>11.2135</v>
       </c>
       <c r="L52">
-        <v>8.32</v>
+        <v>11.41</v>
       </c>
       <c r="M52">
-        <v>8.26</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="N52">
-        <v>10.67</v>
+        <v>23.3</v>
       </c>
       <c r="O52">
-        <v>11.3895</v>
+        <v>22.18</v>
       </c>
       <c r="P52">
-        <v>10.67</v>
-      </c>
-      <c r="Q52">
-        <v>11.2135</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="0"/>
-        <v>11.41</v>
-      </c>
-      <c r="S52">
+        <v>21.15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53">
         <f t="shared" si="1"/>
-        <v>16.579999999999998</v>
-      </c>
-      <c r="T52">
-        <v>23.3</v>
-      </c>
-      <c r="U52">
-        <v>22.18</v>
-      </c>
-      <c r="V52">
-        <v>21.15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" t="s">
         <v>105</v>
-      </c>
-      <c r="D53" t="s">
-        <v>106</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="F53" s="9">
-        <v>11.006</v>
-      </c>
-      <c r="G53" s="1">
-        <v>11.35</v>
-      </c>
-      <c r="H53" s="1">
+      <c r="F53" s="1">
         <v>11.95</v>
       </c>
-      <c r="I53" s="9">
+      <c r="G53" s="9">
         <v>10.772</v>
       </c>
+      <c r="H53">
+        <v>5.48</v>
+      </c>
+      <c r="I53">
+        <v>8.64</v>
+      </c>
       <c r="J53">
-        <v>5.48</v>
+        <v>10.27</v>
       </c>
       <c r="K53">
-        <v>5.44</v>
+        <v>11.6105</v>
       </c>
       <c r="L53">
-        <v>8.7100000000000009</v>
+        <v>10.920000000000002</v>
       </c>
       <c r="M53">
-        <v>8.64</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="N53">
-        <v>10.93</v>
+        <v>23.45</v>
       </c>
       <c r="O53">
-        <v>11.608499999999999</v>
+        <v>23.17</v>
       </c>
       <c r="P53">
-        <v>10.27</v>
-      </c>
-      <c r="Q53">
-        <v>11.6105</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="0"/>
-        <v>10.920000000000002</v>
-      </c>
-      <c r="S53">
+        <v>22.56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54">
         <f t="shared" si="1"/>
-        <v>17.350000000000001</v>
-      </c>
-      <c r="T53">
-        <v>23.45</v>
-      </c>
-      <c r="U53">
-        <v>23.17</v>
-      </c>
-      <c r="V53">
-        <v>22.56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E54" s="5">
         <v>1</v>
       </c>
-      <c r="F54" s="12">
-        <v>11.176</v>
-      </c>
-      <c r="G54" s="6">
-        <v>11.5</v>
-      </c>
-      <c r="H54" s="6">
+      <c r="F54" s="6">
         <v>11.67</v>
       </c>
-      <c r="I54" s="12">
+      <c r="G54" s="12">
         <v>10.904999999999999</v>
       </c>
+      <c r="H54" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="I54">
+        <v>9.2200000000000006</v>
+      </c>
       <c r="J54" s="5">
-        <v>5.75</v>
-      </c>
-      <c r="K54" s="5">
-        <v>5.86</v>
+        <v>10.71</v>
+      </c>
+      <c r="K54">
+        <v>12.423999999999999</v>
       </c>
       <c r="L54">
-        <v>8.75</v>
+        <v>11.61</v>
       </c>
       <c r="M54">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="N54" s="5">
-        <v>10.17</v>
+        <v>17.97</v>
+      </c>
+      <c r="N54">
+        <v>24.23</v>
       </c>
       <c r="O54">
-        <v>11.786999999999999</v>
-      </c>
-      <c r="P54" s="5">
-        <v>10.71</v>
-      </c>
-      <c r="Q54">
-        <v>12.423999999999999</v>
-      </c>
-      <c r="R54">
-        <f t="shared" si="0"/>
-        <v>11.61</v>
-      </c>
-      <c r="S54">
+        <v>23.229999999999997</v>
+      </c>
+      <c r="P54">
+        <v>22.64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55">
         <f t="shared" si="1"/>
-        <v>17.97</v>
-      </c>
-      <c r="T54">
-        <v>24.23</v>
-      </c>
-      <c r="U54">
-        <v>23.229999999999997</v>
-      </c>
-      <c r="V54">
-        <v>22.64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>110</v>
       </c>
       <c r="E55">
         <v>2</v>
       </c>
-      <c r="F55" s="9">
-        <v>11.617000000000001</v>
-      </c>
-      <c r="G55" s="1">
-        <v>11.56</v>
-      </c>
-      <c r="H55" s="1">
+      <c r="F55" s="1">
         <v>11.92</v>
       </c>
-      <c r="I55" s="9">
+      <c r="G55" s="9">
         <v>12.068</v>
       </c>
+      <c r="H55">
+        <v>5.28</v>
+      </c>
+      <c r="I55">
+        <v>7.98</v>
+      </c>
       <c r="J55">
-        <v>5.28</v>
+        <v>11.12</v>
       </c>
       <c r="K55">
-        <v>5.47</v>
+        <v>12.743500000000001</v>
       </c>
       <c r="L55">
-        <v>7.98</v>
+        <v>10.75</v>
       </c>
       <c r="M55">
-        <v>7.98</v>
+        <v>15.96</v>
       </c>
       <c r="N55">
-        <v>11.4</v>
+        <v>22.35</v>
       </c>
       <c r="O55">
-        <v>12.778</v>
+        <v>23.18</v>
       </c>
       <c r="P55">
-        <v>11.12</v>
-      </c>
-      <c r="Q55">
-        <v>12.743500000000001</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="0"/>
-        <v>10.75</v>
-      </c>
-      <c r="S55">
+        <v>23.06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56">
         <f t="shared" si="1"/>
-        <v>15.96</v>
-      </c>
-      <c r="T55">
-        <v>22.35</v>
-      </c>
-      <c r="U55">
-        <v>23.18</v>
-      </c>
-      <c r="V55">
-        <v>23.06</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" t="s">
         <v>111</v>
-      </c>
-      <c r="D56" t="s">
-        <v>112</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
-      <c r="F56" s="9">
-        <v>11.045999999999999</v>
-      </c>
-      <c r="G56" s="1">
-        <v>12.25</v>
-      </c>
-      <c r="H56" s="1">
+      <c r="F56" s="1">
         <v>12.18</v>
       </c>
-      <c r="I56" s="9">
+      <c r="G56" s="9">
         <v>10.896000000000001</v>
       </c>
+      <c r="H56">
+        <v>5.93</v>
+      </c>
+      <c r="I56">
+        <v>9.52</v>
+      </c>
       <c r="J56">
-        <v>5.93</v>
+        <v>10.3</v>
       </c>
       <c r="K56">
-        <v>5.8</v>
+        <v>12.163</v>
       </c>
       <c r="L56">
-        <v>9.1</v>
+        <v>11.73</v>
       </c>
       <c r="M56">
-        <v>9.52</v>
+        <v>18.619999999999997</v>
       </c>
       <c r="N56">
-        <v>10.39</v>
+        <v>24.979999999999997</v>
       </c>
       <c r="O56">
-        <v>12.295</v>
+        <v>23.92</v>
       </c>
       <c r="P56">
-        <v>10.3</v>
-      </c>
-      <c r="Q56">
-        <v>12.163</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="0"/>
-        <v>11.73</v>
-      </c>
-      <c r="S56">
+        <v>23.11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57">
         <f t="shared" si="1"/>
-        <v>18.619999999999997</v>
-      </c>
-      <c r="T56">
-        <v>24.979999999999997</v>
-      </c>
-      <c r="U56">
-        <v>23.92</v>
-      </c>
-      <c r="V56">
-        <v>23.11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" t="s">
         <v>113</v>
-      </c>
-      <c r="D57" t="s">
-        <v>114</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
-      <c r="F57" s="9">
-        <v>10.835000000000001</v>
-      </c>
-      <c r="G57" s="1">
-        <v>11.36</v>
-      </c>
-      <c r="H57" s="1">
+      <c r="F57" s="1">
         <v>11.25</v>
       </c>
-      <c r="I57" s="9">
+      <c r="G57" s="9">
         <v>10.631</v>
       </c>
+      <c r="H57">
+        <v>5.42</v>
+      </c>
+      <c r="I57">
+        <v>8.8800000000000008</v>
+      </c>
       <c r="J57">
-        <v>5.42</v>
-      </c>
-      <c r="K57" s="2">
-        <v>5.31</v>
+        <v>10.46</v>
+      </c>
+      <c r="K57">
+        <v>11.5745</v>
       </c>
       <c r="L57">
-        <v>9.1</v>
+        <v>10.73</v>
       </c>
       <c r="M57">
-        <v>8.8800000000000008</v>
+        <v>17.98</v>
       </c>
       <c r="N57">
-        <v>10.48</v>
+        <v>23.66</v>
       </c>
       <c r="O57">
-        <v>11.262499999999999</v>
+        <v>23.150000000000002</v>
       </c>
       <c r="P57">
-        <v>10.46</v>
-      </c>
-      <c r="Q57">
-        <v>11.5745</v>
-      </c>
-      <c r="R57">
-        <f t="shared" si="0"/>
-        <v>10.73</v>
-      </c>
-      <c r="S57">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58">
         <f t="shared" si="1"/>
-        <v>17.98</v>
-      </c>
-      <c r="T57">
-        <v>23.66</v>
-      </c>
-      <c r="U57">
-        <v>23.150000000000002</v>
-      </c>
-      <c r="V57">
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" t="s">
         <v>115</v>
-      </c>
-      <c r="D58" t="s">
-        <v>116</v>
       </c>
       <c r="E58">
         <v>2</v>
       </c>
-      <c r="F58" s="9">
-        <v>11.881</v>
-      </c>
-      <c r="G58" s="1">
-        <v>12.18</v>
-      </c>
-      <c r="H58" s="1">
+      <c r="F58" s="1">
         <v>11.84</v>
       </c>
-      <c r="I58" s="9">
+      <c r="G58" s="9">
         <v>11.673999999999999</v>
       </c>
+      <c r="H58">
+        <v>5.96</v>
+      </c>
+      <c r="I58">
+        <v>8.91</v>
+      </c>
       <c r="J58">
-        <v>5.96</v>
+        <v>11.15</v>
       </c>
       <c r="K58">
-        <v>5.8</v>
+        <v>12.342500000000001</v>
       </c>
       <c r="L58">
-        <v>8.84</v>
+        <v>11.76</v>
       </c>
       <c r="M58">
-        <v>8.91</v>
+        <v>17.75</v>
       </c>
       <c r="N58">
-        <v>10.97</v>
+        <v>24.400000000000002</v>
       </c>
       <c r="O58">
-        <v>12.1175</v>
+        <v>23.12</v>
       </c>
       <c r="P58">
-        <v>11.15</v>
-      </c>
-      <c r="Q58">
-        <v>12.342500000000001</v>
-      </c>
-      <c r="R58">
-        <f t="shared" si="0"/>
-        <v>11.76</v>
-      </c>
-      <c r="S58">
+        <v>25.29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59">
         <f t="shared" si="1"/>
-        <v>17.75</v>
-      </c>
-      <c r="T58">
-        <v>24.400000000000002</v>
-      </c>
-      <c r="U58">
-        <v>23.12</v>
-      </c>
-      <c r="V58">
-        <v>25.29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" t="s">
         <v>117</v>
-      </c>
-      <c r="D59" t="s">
-        <v>118</v>
       </c>
       <c r="E59">
         <v>2</v>
       </c>
-      <c r="F59" s="9">
-        <v>10.58</v>
-      </c>
-      <c r="G59" s="1">
+      <c r="F59" s="1">
         <v>11.63</v>
       </c>
-      <c r="H59" s="1">
-        <v>11.63</v>
-      </c>
-      <c r="I59" s="9">
+      <c r="G59" s="9">
         <v>10.92</v>
       </c>
+      <c r="H59">
+        <v>5.89</v>
+      </c>
+      <c r="I59">
+        <v>8.75</v>
+      </c>
       <c r="J59">
-        <v>5.89</v>
+        <v>10.72</v>
       </c>
       <c r="K59">
-        <v>5.82</v>
+        <v>12.080500000000001</v>
       </c>
       <c r="L59">
-        <v>8.41</v>
+        <v>11.71</v>
       </c>
       <c r="M59">
-        <v>8.75</v>
+        <v>17.16</v>
       </c>
       <c r="N59">
-        <v>10.77</v>
+        <v>24.31</v>
       </c>
       <c r="O59">
-        <v>11.9625</v>
+        <v>22.799999999999997</v>
       </c>
       <c r="P59">
-        <v>10.72</v>
-      </c>
-      <c r="Q59">
-        <v>12.080500000000001</v>
-      </c>
-      <c r="R59">
-        <f t="shared" si="0"/>
-        <v>11.71</v>
-      </c>
-      <c r="S59">
+        <v>22.18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60">
         <f t="shared" si="1"/>
-        <v>17.16</v>
-      </c>
-      <c r="T59">
-        <v>24.31</v>
-      </c>
-      <c r="U59">
-        <v>22.799999999999997</v>
-      </c>
-      <c r="V59">
-        <v>22.18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" t="s">
         <v>119</v>
-      </c>
-      <c r="D60" t="s">
-        <v>120</v>
       </c>
       <c r="E60">
         <v>2</v>
       </c>
-      <c r="F60" s="9">
-        <v>10.141</v>
-      </c>
-      <c r="G60" s="1">
-        <v>10.86</v>
-      </c>
-      <c r="H60" s="1">
+      <c r="F60" s="1">
         <v>11.09</v>
       </c>
-      <c r="I60" s="9">
+      <c r="G60" s="9">
         <v>9.7449999999999992</v>
       </c>
+      <c r="H60">
+        <v>5.22</v>
+      </c>
+      <c r="I60">
+        <v>8.23</v>
+      </c>
       <c r="J60">
-        <v>5.22</v>
+        <v>9.98</v>
       </c>
       <c r="K60">
-        <v>5.39</v>
+        <v>11.2585</v>
       </c>
       <c r="L60">
-        <v>8.49</v>
+        <v>10.61</v>
       </c>
       <c r="M60">
-        <v>8.23</v>
+        <v>16.72</v>
       </c>
       <c r="N60">
-        <v>9.7799999999999994</v>
+        <v>22.88</v>
       </c>
       <c r="O60">
-        <v>10.9375</v>
+        <v>21.55</v>
       </c>
       <c r="P60">
-        <v>9.98</v>
-      </c>
-      <c r="Q60">
-        <v>11.2585</v>
-      </c>
-      <c r="R60">
-        <f t="shared" si="0"/>
-        <v>10.61</v>
-      </c>
-      <c r="S60">
+        <v>21.880000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61">
         <f t="shared" si="1"/>
-        <v>16.72</v>
-      </c>
-      <c r="T60">
-        <v>22.88</v>
-      </c>
-      <c r="U60">
-        <v>21.55</v>
-      </c>
-      <c r="V60">
-        <v>21.880000000000003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" t="s">
         <v>121</v>
-      </c>
-      <c r="D61" t="s">
-        <v>122</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" s="9">
-        <v>9.5570000000000004</v>
-      </c>
-      <c r="G61" s="1">
-        <v>10.29</v>
-      </c>
-      <c r="H61" s="1">
+      <c r="F61" s="1">
         <v>10.73</v>
       </c>
-      <c r="I61" s="9">
+      <c r="G61" s="9">
         <v>10.051</v>
       </c>
+      <c r="H61">
+        <v>5.26</v>
+      </c>
+      <c r="I61">
+        <v>8.1300000000000008</v>
+      </c>
       <c r="J61">
-        <v>5.26</v>
+        <v>10.33</v>
       </c>
       <c r="K61">
-        <v>5.31</v>
+        <v>11.894500000000001</v>
       </c>
       <c r="L61">
-        <v>8.0399999999999991</v>
+        <v>10.57</v>
       </c>
       <c r="M61">
-        <v>8.1300000000000008</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="N61">
-        <v>9.98</v>
+        <v>22.939999999999998</v>
       </c>
       <c r="O61">
-        <v>11.963000000000001</v>
+        <v>21.65</v>
       </c>
       <c r="P61">
-        <v>10.33</v>
-      </c>
-      <c r="Q61">
-        <v>11.894500000000001</v>
-      </c>
-      <c r="R61">
-        <f t="shared" si="0"/>
-        <v>10.57</v>
-      </c>
-      <c r="S61">
+        <v>20.03</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62">
         <f t="shared" si="1"/>
-        <v>16.170000000000002</v>
-      </c>
-      <c r="T61">
-        <v>22.939999999999998</v>
-      </c>
-      <c r="U61">
-        <v>21.65</v>
-      </c>
-      <c r="V61">
-        <v>20.03</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" t="s">
         <v>123</v>
-      </c>
-      <c r="D62" t="s">
-        <v>124</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" s="9">
-        <v>11.571</v>
-      </c>
-      <c r="G62" s="1">
-        <v>12.24</v>
-      </c>
-      <c r="H62" s="1">
+      <c r="F62" s="1">
         <v>12.16</v>
       </c>
-      <c r="I62" s="9">
+      <c r="G62" s="9">
         <v>11.333</v>
       </c>
+      <c r="H62">
+        <v>6.11</v>
+      </c>
+      <c r="I62">
+        <v>9.32</v>
+      </c>
       <c r="J62">
-        <v>6.11</v>
+        <v>11.15</v>
       </c>
       <c r="K62">
-        <v>5.96</v>
+        <v>12.1655</v>
       </c>
       <c r="L62">
-        <v>9.4</v>
+        <v>12.07</v>
       </c>
       <c r="M62">
-        <v>9.32</v>
+        <v>18.72</v>
       </c>
       <c r="N62">
-        <v>11.42</v>
+        <v>25.25</v>
       </c>
       <c r="O62">
-        <v>12.1355</v>
+        <v>25.560000000000002</v>
       </c>
       <c r="P62">
-        <v>11.15</v>
-      </c>
-      <c r="Q62">
-        <v>12.1655</v>
-      </c>
-      <c r="R62">
-        <f t="shared" si="0"/>
-        <v>12.07</v>
-      </c>
-      <c r="S62">
+        <v>23.84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63">
         <f t="shared" si="1"/>
-        <v>18.72</v>
-      </c>
-      <c r="T62">
-        <v>25.25</v>
-      </c>
-      <c r="U62">
-        <v>25.560000000000002</v>
-      </c>
-      <c r="V62">
-        <v>23.84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" t="s">
         <v>125</v>
-      </c>
-      <c r="D63" t="s">
-        <v>126</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" s="9">
-        <v>10.54</v>
-      </c>
-      <c r="G63" s="1">
-        <v>11.22</v>
-      </c>
-      <c r="H63" s="1">
+      <c r="F63" s="1">
         <v>11.01</v>
       </c>
-      <c r="I63" s="9">
+      <c r="G63" s="9">
         <v>10.506</v>
       </c>
+      <c r="H63">
+        <v>5.68</v>
+      </c>
+      <c r="I63">
+        <v>9</v>
+      </c>
       <c r="J63">
-        <v>5.68</v>
+        <v>9.64</v>
       </c>
       <c r="K63">
-        <v>5.54</v>
+        <v>10.966000000000001</v>
       </c>
       <c r="L63">
-        <v>9.0500000000000007</v>
+        <v>11.219999999999999</v>
       </c>
       <c r="M63">
-        <v>9</v>
+        <v>18.05</v>
       </c>
       <c r="N63">
-        <v>9.9700000000000006</v>
+        <v>23.93</v>
       </c>
       <c r="O63">
-        <v>10.920999999999999</v>
+        <v>23.17</v>
       </c>
       <c r="P63">
-        <v>9.64</v>
-      </c>
-      <c r="Q63">
-        <v>10.966000000000001</v>
-      </c>
-      <c r="R63">
-        <f t="shared" si="0"/>
-        <v>11.219999999999999</v>
-      </c>
-      <c r="S63">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64">
         <f t="shared" si="1"/>
-        <v>18.05</v>
-      </c>
-      <c r="T63">
-        <v>23.93</v>
-      </c>
-      <c r="U63">
-        <v>23.17</v>
-      </c>
-      <c r="V63">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" t="s">
         <v>127</v>
-      </c>
-      <c r="D64" t="s">
-        <v>128</v>
       </c>
       <c r="E64">
         <v>2</v>
       </c>
-      <c r="F64" s="9">
-        <v>11.632</v>
-      </c>
-      <c r="G64" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="H64" s="1">
+      <c r="F64" s="1">
         <v>10.7</v>
       </c>
-      <c r="I64" s="9">
+      <c r="G64" s="9">
         <v>11.183999999999999</v>
       </c>
+      <c r="H64">
+        <v>5.78</v>
+      </c>
+      <c r="I64">
+        <v>9.0299999999999994</v>
+      </c>
       <c r="J64">
-        <v>5.78</v>
+        <v>10.69</v>
       </c>
       <c r="K64">
-        <v>5.78</v>
+        <v>12.141500000000001</v>
       </c>
       <c r="L64">
-        <v>9.26</v>
+        <v>11.56</v>
       </c>
       <c r="M64">
-        <v>9.0299999999999994</v>
+        <v>18.29</v>
       </c>
       <c r="N64">
-        <v>10.65</v>
+        <v>24.790000000000003</v>
       </c>
       <c r="O64">
-        <v>12.369</v>
+        <v>24.27</v>
       </c>
       <c r="P64">
-        <v>10.69</v>
-      </c>
-      <c r="Q64">
-        <v>12.141500000000001</v>
-      </c>
-      <c r="R64">
-        <f t="shared" si="0"/>
-        <v>11.56</v>
-      </c>
-      <c r="S64">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65">
         <f t="shared" si="1"/>
-        <v>18.29</v>
-      </c>
-      <c r="T64">
-        <v>24.790000000000003</v>
-      </c>
-      <c r="U64">
-        <v>24.27</v>
-      </c>
-      <c r="V64">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
       </c>
-      <c r="F65" s="9">
-        <v>9.9719999999999995</v>
-      </c>
-      <c r="G65" s="1">
-        <v>10.29</v>
-      </c>
-      <c r="H65" s="1">
+      <c r="F65" s="1">
         <v>10.19</v>
       </c>
-      <c r="I65" s="9">
+      <c r="G65" s="9">
         <v>10.01</v>
       </c>
+      <c r="H65">
+        <v>5.58</v>
+      </c>
+      <c r="I65">
+        <v>8.2799999999999994</v>
+      </c>
       <c r="J65">
-        <v>5.58</v>
+        <v>9.59</v>
       </c>
       <c r="K65">
-        <v>5.43</v>
+        <v>10.458</v>
       </c>
       <c r="L65">
-        <v>8.43</v>
+        <v>11.01</v>
       </c>
       <c r="M65">
-        <v>8.2799999999999994</v>
+        <v>16.71</v>
       </c>
       <c r="N65">
-        <v>9.67</v>
+        <v>22.509999999999998</v>
       </c>
       <c r="O65">
-        <v>10.612500000000001</v>
+        <v>20.91</v>
       </c>
       <c r="P65">
-        <v>9.59</v>
-      </c>
-      <c r="Q65">
-        <v>10.458</v>
-      </c>
-      <c r="R65">
-        <f t="shared" si="0"/>
-        <v>11.01</v>
-      </c>
-      <c r="S65">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66">
         <f t="shared" si="1"/>
-        <v>16.71</v>
-      </c>
-      <c r="T65">
-        <v>22.509999999999998</v>
-      </c>
-      <c r="U65">
-        <v>20.91</v>
-      </c>
-      <c r="V65">
-        <v>19.64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66" t="s">
         <v>131</v>
-      </c>
-      <c r="C66" t="s">
-        <v>223</v>
-      </c>
-      <c r="D66" t="s">
-        <v>132</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66" s="9">
-        <v>10.420999999999999</v>
-      </c>
-      <c r="G66" s="1">
-        <v>10</v>
-      </c>
-      <c r="H66" s="1">
+      <c r="F66" s="1">
         <v>10.73</v>
       </c>
-      <c r="I66" s="9">
+      <c r="G66" s="9">
         <v>10.013</v>
       </c>
+      <c r="H66">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I66">
+        <v>7.75</v>
+      </c>
       <c r="J66">
-        <v>5.1100000000000003</v>
+        <v>9.31</v>
       </c>
       <c r="K66">
-        <v>5.43</v>
+        <v>10.585000000000001</v>
       </c>
       <c r="L66">
-        <v>7.82</v>
+        <v>10.54</v>
       </c>
       <c r="M66">
-        <v>7.75</v>
+        <v>15.57</v>
       </c>
       <c r="N66">
-        <v>9.6300000000000008</v>
+        <v>22.29</v>
       </c>
       <c r="O66">
-        <v>10.769</v>
+        <v>22.45</v>
       </c>
       <c r="P66">
-        <v>9.31</v>
-      </c>
-      <c r="Q66">
-        <v>10.585000000000001</v>
-      </c>
-      <c r="R66">
-        <f t="shared" si="0"/>
-        <v>10.54</v>
-      </c>
-      <c r="S66">
+        <v>20.91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A67">
         <f t="shared" si="1"/>
-        <v>15.57</v>
-      </c>
-      <c r="T66">
-        <v>22.29</v>
-      </c>
-      <c r="U66">
-        <v>22.45</v>
-      </c>
-      <c r="V66">
-        <v>20.91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
       </c>
-      <c r="F67" s="9">
-        <v>10.467000000000001</v>
-      </c>
-      <c r="G67" s="1">
-        <v>10.47</v>
-      </c>
-      <c r="H67" s="1">
+      <c r="F67" s="1">
         <v>10.37</v>
       </c>
-      <c r="I67" s="9">
+      <c r="G67" s="9">
         <v>10.452</v>
       </c>
+      <c r="H67">
+        <v>5.59</v>
+      </c>
+      <c r="I67">
+        <v>9.24</v>
+      </c>
       <c r="J67">
-        <v>5.59</v>
+        <v>10.79</v>
       </c>
       <c r="K67">
-        <v>5.49</v>
+        <v>11.329000000000001</v>
       </c>
       <c r="L67">
-        <v>9.1</v>
+        <v>11.08</v>
       </c>
       <c r="M67">
-        <v>9.24</v>
+        <v>18.34</v>
       </c>
       <c r="N67">
-        <v>10.97</v>
+        <v>23.72</v>
       </c>
       <c r="O67">
-        <v>11.436</v>
+        <v>21.82</v>
       </c>
       <c r="P67">
-        <v>10.79</v>
-      </c>
-      <c r="Q67">
-        <v>11.329000000000001</v>
-      </c>
-      <c r="R67">
-        <f t="shared" ref="R67:R101" si="4">J67+K67</f>
-        <v>11.08</v>
-      </c>
-      <c r="S67">
-        <f t="shared" ref="S67:S101" si="5">L67+M67</f>
-        <v>18.34</v>
-      </c>
-      <c r="T67">
-        <v>23.72</v>
-      </c>
-      <c r="U67">
-        <v>21.82</v>
-      </c>
-      <c r="V67">
         <v>21.06</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" t="s">
         <v>135</v>
-      </c>
-      <c r="D68" t="s">
-        <v>136</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="F68" s="9">
-        <v>11.353</v>
-      </c>
-      <c r="G68" s="1">
-        <v>12.22</v>
-      </c>
-      <c r="H68" s="1">
+      <c r="F68" s="1">
         <v>12.01</v>
       </c>
-      <c r="I68" s="9">
+      <c r="G68" s="9">
         <v>10.826000000000001</v>
       </c>
+      <c r="H68">
+        <v>5.77</v>
+      </c>
+      <c r="I68">
+        <v>8.64</v>
+      </c>
       <c r="J68">
-        <v>5.77</v>
+        <v>11.28</v>
       </c>
       <c r="K68">
-        <v>5.72</v>
+        <v>11.654499999999999</v>
       </c>
       <c r="L68">
-        <v>8.92</v>
+        <v>11.489999999999998</v>
       </c>
       <c r="M68">
-        <v>8.64</v>
+        <v>17.560000000000002</v>
       </c>
       <c r="N68">
-        <v>11.04</v>
+        <v>24.299999999999997</v>
       </c>
       <c r="O68">
-        <v>11.75</v>
+        <v>22.45</v>
       </c>
       <c r="P68">
-        <v>11.28</v>
-      </c>
-      <c r="Q68">
-        <v>11.654499999999999</v>
-      </c>
-      <c r="R68">
-        <f t="shared" si="4"/>
-        <v>11.489999999999998</v>
-      </c>
-      <c r="S68">
-        <f t="shared" si="5"/>
-        <v>17.560000000000002</v>
-      </c>
-      <c r="T68">
-        <v>24.299999999999997</v>
-      </c>
-      <c r="U68">
-        <v>22.45</v>
-      </c>
-      <c r="V68">
         <v>21.75</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="D69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
       </c>
-      <c r="F69" s="9">
-        <v>11.191000000000001</v>
-      </c>
-      <c r="G69" s="1">
-        <v>11.7</v>
-      </c>
-      <c r="H69" s="1">
+      <c r="F69" s="1">
         <v>11.64</v>
       </c>
-      <c r="I69" s="9">
+      <c r="G69" s="9">
         <v>11.106999999999999</v>
       </c>
+      <c r="H69">
+        <v>5.51</v>
+      </c>
+      <c r="I69">
+        <v>9.01</v>
+      </c>
       <c r="J69">
-        <v>5.51</v>
+        <v>10.66</v>
       </c>
       <c r="K69">
-        <v>6.11</v>
+        <v>11.388500000000001</v>
       </c>
       <c r="L69">
-        <v>8.99</v>
+        <v>11.620000000000001</v>
       </c>
       <c r="M69">
-        <v>9.01</v>
+        <v>18</v>
       </c>
       <c r="N69">
-        <v>11.21</v>
+        <v>23.98</v>
       </c>
       <c r="O69">
-        <v>11.216000000000001</v>
+        <v>22.549999999999997</v>
       </c>
       <c r="P69">
-        <v>10.66</v>
-      </c>
-      <c r="Q69">
-        <v>11.388500000000001</v>
-      </c>
-      <c r="R69">
-        <f t="shared" si="4"/>
-        <v>11.620000000000001</v>
-      </c>
-      <c r="S69">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="T69">
-        <v>23.98</v>
-      </c>
-      <c r="U69">
-        <v>22.549999999999997</v>
-      </c>
-      <c r="V69">
         <v>22.38</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" t="s">
         <v>139</v>
-      </c>
-      <c r="D70" t="s">
-        <v>140</v>
       </c>
       <c r="E70">
         <v>2</v>
       </c>
-      <c r="F70" s="9">
-        <v>11.457000000000001</v>
-      </c>
-      <c r="G70" s="1">
-        <v>12.28</v>
-      </c>
-      <c r="H70" s="1">
+      <c r="F70" s="1">
         <v>12.53</v>
       </c>
-      <c r="I70" s="9">
+      <c r="G70" s="9">
         <v>11.547000000000001</v>
       </c>
+      <c r="H70">
+        <v>5.63</v>
+      </c>
+      <c r="I70">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="J70">
-        <v>5.63</v>
+        <v>11.32</v>
       </c>
       <c r="K70">
-        <v>5.61</v>
+        <v>11.8665</v>
       </c>
       <c r="L70">
-        <v>9.26</v>
+        <v>11.24</v>
       </c>
       <c r="M70">
-        <v>9.3000000000000007</v>
+        <v>18.560000000000002</v>
       </c>
       <c r="N70">
-        <v>11</v>
+        <v>24.25</v>
       </c>
       <c r="O70">
-        <v>11.747499999999999</v>
+        <v>23.41</v>
       </c>
       <c r="P70">
-        <v>11.32</v>
-      </c>
-      <c r="Q70">
-        <v>11.8665</v>
-      </c>
-      <c r="R70">
-        <f t="shared" si="4"/>
-        <v>11.24</v>
-      </c>
-      <c r="S70">
-        <f t="shared" si="5"/>
-        <v>18.560000000000002</v>
-      </c>
-      <c r="T70">
-        <v>24.25</v>
-      </c>
-      <c r="U70">
-        <v>23.41</v>
-      </c>
-      <c r="V70">
         <v>22.13</v>
       </c>
     </row>
-    <row r="71" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>142</v>
       </c>
       <c r="E71" s="15">
         <v>1</v>
       </c>
-      <c r="F71" s="17">
-        <v>11.696</v>
-      </c>
-      <c r="G71" s="16">
-        <v>12.45</v>
-      </c>
-      <c r="H71" s="16">
+      <c r="F71" s="16">
         <v>12.64</v>
       </c>
-      <c r="I71" s="17">
+      <c r="G71" s="17">
         <v>11.755000000000001</v>
       </c>
+      <c r="H71" s="15">
+        <v>5.88</v>
+      </c>
+      <c r="I71" s="15">
+        <v>9.4499999999999993</v>
+      </c>
       <c r="J71" s="15">
-        <v>5.88</v>
-      </c>
-      <c r="K71" s="15">
-        <v>5.91</v>
+        <v>11.17</v>
+      </c>
+      <c r="K71">
+        <v>12.21</v>
       </c>
       <c r="L71" s="15">
-        <v>9.32</v>
+        <v>11.79</v>
       </c>
       <c r="M71" s="15">
-        <v>9.4499999999999993</v>
+        <v>18.77</v>
       </c>
       <c r="N71" s="15">
-        <v>11.13</v>
-      </c>
-      <c r="O71">
-        <v>12.173</v>
+        <v>25.28</v>
+      </c>
+      <c r="O71" s="15">
+        <v>25.6</v>
       </c>
       <c r="P71" s="15">
-        <v>11.17</v>
-      </c>
-      <c r="Q71">
-        <v>12.21</v>
-      </c>
-      <c r="R71">
-        <f t="shared" si="4"/>
-        <v>11.79</v>
-      </c>
-      <c r="S71">
-        <f t="shared" si="5"/>
-        <v>18.77</v>
-      </c>
-      <c r="T71" s="15">
-        <v>25.28</v>
-      </c>
-      <c r="U71" s="15">
-        <v>25.6</v>
-      </c>
-      <c r="V71" s="15">
         <v>24.259999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E72" s="19">
         <v>2</v>
       </c>
-      <c r="F72" s="21">
-        <v>10.378</v>
-      </c>
-      <c r="G72" s="20">
-        <v>11.02</v>
-      </c>
-      <c r="H72" s="20">
+      <c r="F72" s="20">
         <v>10.85</v>
       </c>
-      <c r="I72" s="21">
+      <c r="G72" s="21">
         <v>10.452999999999999</v>
       </c>
+      <c r="H72" s="19">
+        <v>5.15</v>
+      </c>
+      <c r="I72" s="18">
+        <v>8.09</v>
+      </c>
       <c r="J72" s="19">
-        <v>5.15</v>
-      </c>
-      <c r="K72" s="19">
-        <v>5.21</v>
+        <v>10.1</v>
+      </c>
+      <c r="K72">
+        <v>11.1995</v>
       </c>
       <c r="L72" s="18">
-        <v>8.08</v>
+        <v>10.36</v>
       </c>
       <c r="M72" s="18">
-        <v>8.09</v>
-      </c>
-      <c r="N72" s="19">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="O72">
-        <v>11.190999999999999</v>
-      </c>
-      <c r="P72" s="19">
-        <v>10.1</v>
-      </c>
-      <c r="Q72">
-        <v>11.1995</v>
-      </c>
-      <c r="R72">
-        <f t="shared" si="4"/>
-        <v>10.36</v>
-      </c>
-      <c r="S72">
-        <f t="shared" si="5"/>
         <v>16.170000000000002</v>
       </c>
-      <c r="T72" s="18">
+      <c r="N72" s="18">
         <v>21.73</v>
       </c>
-      <c r="U72" s="18">
+      <c r="O72" s="18">
         <v>22.3</v>
       </c>
-      <c r="V72" s="18">
+      <c r="P72" s="18">
         <v>21.669999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" t="s">
         <v>144</v>
-      </c>
-      <c r="D73" t="s">
-        <v>145</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
-      <c r="F73" s="9">
-        <v>10.252000000000001</v>
-      </c>
-      <c r="G73" s="1">
-        <v>11.17</v>
-      </c>
-      <c r="H73" s="1">
+      <c r="F73" s="1">
         <v>10.64</v>
       </c>
-      <c r="I73" s="9">
+      <c r="G73" s="9">
         <v>9.8919999999999995</v>
       </c>
+      <c r="H73">
+        <v>5.67</v>
+      </c>
+      <c r="I73">
+        <v>8.42</v>
+      </c>
       <c r="J73">
-        <v>5.67</v>
+        <v>10.52</v>
       </c>
       <c r="K73">
-        <v>5.76</v>
+        <v>11.126000000000001</v>
       </c>
       <c r="L73">
-        <v>8.58</v>
+        <v>11.43</v>
       </c>
       <c r="M73">
-        <v>8.42</v>
+        <v>17</v>
       </c>
       <c r="N73">
-        <v>10.83</v>
+        <v>23.860000000000003</v>
       </c>
       <c r="O73">
-        <v>11.182500000000001</v>
+        <v>21.78</v>
       </c>
       <c r="P73">
-        <v>10.52</v>
-      </c>
-      <c r="Q73">
-        <v>11.126000000000001</v>
-      </c>
-      <c r="R73">
-        <f t="shared" si="4"/>
-        <v>11.43</v>
-      </c>
-      <c r="S73">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="T73">
-        <v>23.860000000000003</v>
-      </c>
-      <c r="U73">
-        <v>21.78</v>
-      </c>
-      <c r="V73">
         <v>21.29</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" t="s">
         <v>146</v>
-      </c>
-      <c r="D74" t="s">
-        <v>147</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
-      <c r="F74" s="9">
-        <v>11.429</v>
-      </c>
-      <c r="G74" s="1">
-        <v>12.04</v>
-      </c>
-      <c r="H74" s="1">
+      <c r="F74" s="1">
         <v>12.18</v>
       </c>
-      <c r="I74" s="9">
+      <c r="G74" s="9">
         <v>11.247</v>
       </c>
+      <c r="H74">
+        <v>5.65</v>
+      </c>
+      <c r="I74">
+        <v>8.4600000000000009</v>
+      </c>
       <c r="J74">
-        <v>5.65</v>
+        <v>10.69</v>
       </c>
       <c r="K74">
-        <v>5.52</v>
+        <v>12.2965</v>
       </c>
       <c r="L74">
-        <v>8.57</v>
+        <v>11.17</v>
       </c>
       <c r="M74">
-        <v>8.4600000000000009</v>
+        <v>17.03</v>
       </c>
       <c r="N74">
-        <v>11.21</v>
+        <v>23.46</v>
       </c>
       <c r="O74">
-        <v>12.173500000000001</v>
+        <v>23.279999999999998</v>
       </c>
       <c r="P74">
-        <v>10.69</v>
-      </c>
-      <c r="Q74">
-        <v>12.2965</v>
-      </c>
-      <c r="R74">
-        <f t="shared" si="4"/>
-        <v>11.17</v>
-      </c>
-      <c r="S74">
-        <f t="shared" si="5"/>
-        <v>17.03</v>
-      </c>
-      <c r="T74">
-        <v>23.46</v>
-      </c>
-      <c r="U74">
-        <v>23.279999999999998</v>
-      </c>
-      <c r="V74">
         <v>22.169999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" t="s">
         <v>148</v>
-      </c>
-      <c r="D75" t="s">
-        <v>149</v>
       </c>
       <c r="E75">
         <v>2</v>
       </c>
-      <c r="F75" s="9">
-        <v>10.215999999999999</v>
-      </c>
-      <c r="G75" s="1">
-        <v>11.03</v>
-      </c>
-      <c r="H75" s="1">
+      <c r="F75" s="1">
         <v>10.97</v>
       </c>
-      <c r="I75" s="9">
+      <c r="G75" s="9">
         <v>10.068</v>
       </c>
+      <c r="H75">
+        <v>5.2</v>
+      </c>
+      <c r="I75">
+        <v>8.07</v>
+      </c>
       <c r="J75">
-        <v>5.2</v>
+        <v>10.45</v>
       </c>
       <c r="K75">
-        <v>5.28</v>
+        <v>10.4055</v>
       </c>
       <c r="L75">
-        <v>8.0299999999999994</v>
+        <v>10.48</v>
       </c>
       <c r="M75">
-        <v>8.07</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="N75">
-        <v>10.38</v>
+        <v>21.69</v>
       </c>
       <c r="O75">
-        <v>10.4375</v>
+        <v>22.37</v>
       </c>
       <c r="P75">
-        <v>10.45</v>
-      </c>
-      <c r="Q75">
-        <v>10.4055</v>
-      </c>
-      <c r="R75">
-        <f t="shared" si="4"/>
-        <v>10.48</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="5"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="T75">
-        <v>21.69</v>
-      </c>
-      <c r="U75">
-        <v>22.37</v>
-      </c>
-      <c r="V75">
         <v>20.38</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E76" s="2">
         <v>1</v>
       </c>
-      <c r="F76" s="9">
-        <v>10.584</v>
-      </c>
-      <c r="G76" s="1">
-        <v>10.31</v>
-      </c>
-      <c r="H76" s="1">
+      <c r="F76" s="1">
         <v>10.37</v>
       </c>
-      <c r="I76" s="9">
+      <c r="G76" s="9">
         <v>10.663</v>
       </c>
+      <c r="H76">
+        <v>5.83</v>
+      </c>
+      <c r="I76">
+        <v>8.39</v>
+      </c>
       <c r="J76">
-        <v>5.83</v>
+        <v>10.15</v>
       </c>
       <c r="K76">
-        <v>5.8</v>
+        <v>11.397</v>
       </c>
       <c r="L76">
-        <v>8.5</v>
+        <v>11.629999999999999</v>
       </c>
       <c r="M76">
-        <v>8.39</v>
+        <v>16.89</v>
       </c>
       <c r="N76">
-        <v>10.39</v>
+        <v>23.94</v>
       </c>
       <c r="O76">
-        <v>11.3895</v>
+        <v>21.75</v>
       </c>
       <c r="P76">
-        <v>10.15</v>
-      </c>
-      <c r="Q76">
-        <v>11.397</v>
-      </c>
-      <c r="R76">
-        <f t="shared" si="4"/>
-        <v>11.629999999999999</v>
-      </c>
-      <c r="S76">
-        <f t="shared" si="5"/>
-        <v>16.89</v>
-      </c>
-      <c r="T76">
-        <v>23.94</v>
-      </c>
-      <c r="U76">
-        <v>21.75</v>
-      </c>
-      <c r="V76">
         <v>21.369999999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E77" s="2">
         <v>2</v>
       </c>
-      <c r="F77" s="9">
-        <v>11.683</v>
-      </c>
-      <c r="G77" s="1">
-        <v>10.37</v>
-      </c>
-      <c r="H77" s="1">
+      <c r="F77" s="1">
         <v>10.8</v>
       </c>
-      <c r="I77" s="9">
+      <c r="G77" s="9">
         <v>11.792</v>
       </c>
+      <c r="H77">
+        <v>5.62</v>
+      </c>
+      <c r="I77">
+        <v>8.8800000000000008</v>
+      </c>
       <c r="J77">
-        <v>5.62</v>
+        <v>10.3</v>
       </c>
       <c r="K77">
-        <v>5.89</v>
+        <v>12.148</v>
       </c>
       <c r="L77">
-        <v>9.1</v>
+        <v>11.51</v>
       </c>
       <c r="M77">
-        <v>8.8800000000000008</v>
+        <v>17.98</v>
       </c>
       <c r="N77">
-        <v>10.15</v>
+        <v>23.61</v>
       </c>
       <c r="O77">
-        <v>12.0755</v>
+        <v>23.130000000000003</v>
       </c>
       <c r="P77">
-        <v>10.3</v>
-      </c>
-      <c r="Q77">
-        <v>12.148</v>
-      </c>
-      <c r="R77">
-        <f t="shared" si="4"/>
-        <v>11.51</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="5"/>
-        <v>17.98</v>
-      </c>
-      <c r="T77">
-        <v>23.61</v>
-      </c>
-      <c r="U77">
-        <v>23.130000000000003</v>
-      </c>
-      <c r="V77">
         <v>22.64</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" t="s">
+        <v>239</v>
+      </c>
+      <c r="D78" t="s">
         <v>154</v>
-      </c>
-      <c r="C78" t="s">
-        <v>240</v>
-      </c>
-      <c r="D78" t="s">
-        <v>155</v>
       </c>
       <c r="E78">
         <v>2</v>
       </c>
-      <c r="F78" s="9">
-        <v>10.56</v>
-      </c>
-      <c r="G78" s="1">
-        <v>11.64</v>
-      </c>
-      <c r="H78" s="1">
+      <c r="F78" s="1">
         <v>11.38</v>
       </c>
-      <c r="I78" s="9">
+      <c r="G78" s="9">
         <v>9.7870000000000008</v>
       </c>
+      <c r="H78">
+        <v>5.73</v>
+      </c>
+      <c r="I78">
+        <v>9.0299999999999994</v>
+      </c>
       <c r="J78">
-        <v>5.73</v>
+        <v>10.71</v>
       </c>
       <c r="K78">
-        <v>5.8</v>
+        <v>11.27</v>
       </c>
       <c r="L78">
-        <v>9.0500000000000007</v>
+        <v>11.530000000000001</v>
       </c>
       <c r="M78">
-        <v>9.0299999999999994</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="N78">
-        <v>10.71</v>
+        <v>24.700000000000003</v>
       </c>
       <c r="O78">
-        <v>11.2255</v>
+        <v>23.75</v>
       </c>
       <c r="P78">
-        <v>10.71</v>
-      </c>
-      <c r="Q78">
-        <v>11.27</v>
-      </c>
-      <c r="R78">
-        <f t="shared" si="4"/>
-        <v>11.530000000000001</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="5"/>
-        <v>18.079999999999998</v>
-      </c>
-      <c r="T78">
-        <v>24.700000000000003</v>
-      </c>
-      <c r="U78">
-        <v>23.75</v>
-      </c>
-      <c r="V78">
         <v>24.07</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
-      <c r="F79" s="9">
-        <v>11.035</v>
-      </c>
-      <c r="G79" s="1">
-        <v>11.31</v>
-      </c>
-      <c r="H79" s="1">
+      <c r="F79" s="1">
         <v>11.41</v>
       </c>
-      <c r="I79" s="9">
+      <c r="G79" s="9">
         <v>11.263999999999999</v>
       </c>
+      <c r="H79">
+        <v>6.03</v>
+      </c>
+      <c r="I79">
+        <v>8.92</v>
+      </c>
       <c r="J79">
-        <v>6.03</v>
+        <v>10.11</v>
       </c>
       <c r="K79">
-        <v>5.92</v>
+        <v>11.471</v>
       </c>
       <c r="L79">
-        <v>9.11</v>
+        <v>11.95</v>
       </c>
       <c r="M79">
-        <v>8.92</v>
+        <v>18.03</v>
       </c>
       <c r="N79">
-        <v>10.58</v>
+        <v>24.57</v>
       </c>
       <c r="O79">
-        <v>11.4465</v>
+        <v>24.17</v>
       </c>
       <c r="P79">
-        <v>10.11</v>
-      </c>
-      <c r="Q79">
-        <v>11.471</v>
-      </c>
-      <c r="R79">
-        <f t="shared" si="4"/>
-        <v>11.95</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="5"/>
-        <v>18.03</v>
-      </c>
-      <c r="T79">
-        <v>24.57</v>
-      </c>
-      <c r="U79">
-        <v>24.17</v>
-      </c>
-      <c r="V79">
         <v>22.55</v>
       </c>
     </row>
-    <row r="80" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f t="shared" ref="A80:A101" si="6">A79+1</f>
+        <f t="shared" ref="A80:A101" si="2">A79+1</f>
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C80"/>
       <c r="D80" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
-      <c r="F80" s="11">
-        <v>11.010999999999999</v>
-      </c>
-      <c r="G80" s="8">
-        <v>11.45</v>
-      </c>
-      <c r="H80" s="8">
+      <c r="F80" s="8">
         <v>11.26</v>
       </c>
-      <c r="I80" s="11">
+      <c r="G80" s="11">
         <v>11.752000000000001</v>
       </c>
+      <c r="H80" s="7">
+        <v>6.26</v>
+      </c>
+      <c r="I80" s="7">
+        <v>9.7100000000000009</v>
+      </c>
       <c r="J80" s="7">
-        <v>6.26</v>
-      </c>
-      <c r="K80" s="7">
-        <v>6.07</v>
+        <v>10.44</v>
+      </c>
+      <c r="K80">
+        <v>11.9285</v>
       </c>
       <c r="L80" s="7">
-        <v>9.11</v>
+        <v>12.33</v>
       </c>
       <c r="M80" s="7">
-        <v>9.7100000000000009</v>
+        <v>18.82</v>
       </c>
       <c r="N80" s="7">
-        <v>10.68</v>
-      </c>
-      <c r="O80">
-        <v>11.8965</v>
+        <v>26.160000000000004</v>
+      </c>
+      <c r="O80" s="7">
+        <v>23.35</v>
       </c>
       <c r="P80" s="7">
-        <v>10.44</v>
-      </c>
-      <c r="Q80">
-        <v>11.9285</v>
-      </c>
-      <c r="R80">
-        <f t="shared" si="4"/>
-        <v>12.33</v>
-      </c>
-      <c r="S80">
-        <f t="shared" si="5"/>
-        <v>18.82</v>
-      </c>
-      <c r="T80" s="7">
-        <v>26.160000000000004</v>
-      </c>
-      <c r="U80" s="7">
-        <v>23.35</v>
-      </c>
-      <c r="V80" s="7">
         <v>21.62</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>159</v>
+      </c>
+      <c r="D81" t="s">
         <v>160</v>
-      </c>
-      <c r="D81" t="s">
-        <v>161</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
-      <c r="F81" s="9">
-        <v>11.06</v>
-      </c>
-      <c r="G81" s="1">
-        <v>12.04</v>
-      </c>
-      <c r="H81" s="1">
+      <c r="F81" s="1">
         <v>12.1</v>
       </c>
-      <c r="I81" s="9">
+      <c r="G81" s="9">
         <v>11.326000000000001</v>
       </c>
+      <c r="H81">
+        <v>5.59</v>
+      </c>
+      <c r="I81">
+        <v>8.5399999999999991</v>
+      </c>
       <c r="J81">
-        <v>5.59</v>
+        <v>10.72</v>
       </c>
       <c r="K81">
-        <v>5.33</v>
+        <v>11.591000000000001</v>
       </c>
       <c r="L81">
-        <v>8.4700000000000006</v>
+        <v>10.92</v>
       </c>
       <c r="M81">
-        <v>8.5399999999999991</v>
+        <v>17.009999999999998</v>
       </c>
       <c r="N81">
-        <v>10.66</v>
+        <v>23.75</v>
       </c>
       <c r="O81">
-        <v>11.559000000000001</v>
+        <v>23.28</v>
       </c>
       <c r="P81">
-        <v>10.72</v>
-      </c>
-      <c r="Q81">
-        <v>11.591000000000001</v>
-      </c>
-      <c r="R81">
-        <f t="shared" si="4"/>
-        <v>10.92</v>
-      </c>
-      <c r="S81">
-        <f t="shared" si="5"/>
-        <v>17.009999999999998</v>
-      </c>
-      <c r="T81">
-        <v>23.75</v>
-      </c>
-      <c r="U81">
-        <v>23.28</v>
-      </c>
-      <c r="V81">
         <v>22.2</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" t="s">
         <v>162</v>
-      </c>
-      <c r="C82" t="s">
-        <v>231</v>
-      </c>
-      <c r="D82" t="s">
-        <v>163</v>
       </c>
       <c r="E82">
         <v>2</v>
       </c>
-      <c r="F82" s="9">
-        <v>10.853</v>
-      </c>
-      <c r="G82" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="H82" s="1">
+      <c r="F82" s="1">
         <v>11.36</v>
       </c>
-      <c r="I82" s="9">
+      <c r="G82" s="9">
         <v>11.048999999999999</v>
       </c>
+      <c r="H82">
+        <v>7.39</v>
+      </c>
+      <c r="I82">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="J82">
-        <v>7.39</v>
+        <v>10.71</v>
       </c>
       <c r="K82">
-        <v>6.41</v>
+        <v>11.3095</v>
       </c>
       <c r="L82">
-        <v>10.130000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="M82">
-        <v>9.8000000000000007</v>
+        <v>19.93</v>
       </c>
       <c r="N82">
-        <v>11.77</v>
+        <v>27.63</v>
       </c>
       <c r="O82">
-        <v>11.426500000000001</v>
+        <v>24.86</v>
       </c>
       <c r="P82">
-        <v>10.71</v>
-      </c>
-      <c r="Q82">
-        <v>11.3095</v>
-      </c>
-      <c r="R82">
-        <f t="shared" si="4"/>
-        <v>13.8</v>
-      </c>
-      <c r="S82">
-        <f t="shared" si="5"/>
-        <v>19.93</v>
-      </c>
-      <c r="T82">
-        <v>27.63</v>
-      </c>
-      <c r="U82">
-        <v>24.86</v>
-      </c>
-      <c r="V82">
         <v>23.68</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" t="s">
+        <v>231</v>
+      </c>
+      <c r="D83" t="s">
         <v>164</v>
-      </c>
-      <c r="C83" t="s">
-        <v>232</v>
-      </c>
-      <c r="D83" t="s">
-        <v>165</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
-      <c r="F83" s="9">
-        <v>10.93</v>
-      </c>
-      <c r="G83" s="1">
-        <v>11.36</v>
-      </c>
-      <c r="H83" s="1">
+      <c r="F83" s="1">
         <v>11.25</v>
       </c>
-      <c r="I83" s="9">
+      <c r="G83" s="9">
         <v>10.808999999999999</v>
       </c>
+      <c r="H83">
+        <v>5.78</v>
+      </c>
+      <c r="I83">
+        <v>9.0299999999999994</v>
+      </c>
       <c r="J83">
-        <v>5.78</v>
+        <v>10.96</v>
       </c>
       <c r="K83">
-        <v>5.92</v>
+        <v>11.285</v>
       </c>
       <c r="L83">
-        <v>8.83</v>
+        <v>11.7</v>
       </c>
       <c r="M83">
-        <v>9.0299999999999994</v>
+        <v>17.86</v>
       </c>
       <c r="N83">
-        <v>10.55</v>
+        <v>23.999999999999996</v>
       </c>
       <c r="O83">
-        <v>11.363</v>
+        <v>22.51</v>
       </c>
       <c r="P83">
-        <v>10.96</v>
-      </c>
-      <c r="Q83">
-        <v>11.285</v>
-      </c>
-      <c r="R83">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
-      </c>
-      <c r="S83">
-        <f t="shared" si="5"/>
-        <v>17.86</v>
-      </c>
-      <c r="T83">
-        <v>23.999999999999996</v>
-      </c>
-      <c r="U83">
-        <v>22.51</v>
-      </c>
-      <c r="V83">
         <v>22.39</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" t="s">
         <v>166</v>
-      </c>
-      <c r="C84" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84" t="s">
-        <v>167</v>
       </c>
       <c r="E84">
         <v>2</v>
       </c>
-      <c r="F84" s="9">
-        <v>11.086</v>
-      </c>
-      <c r="G84" s="1">
-        <v>10.98</v>
-      </c>
-      <c r="H84" s="1">
+      <c r="F84" s="1">
         <v>10.93</v>
       </c>
-      <c r="I84" s="9">
+      <c r="G84" s="9">
         <v>10.946999999999999</v>
       </c>
+      <c r="H84">
+        <v>6.13</v>
+      </c>
+      <c r="I84">
+        <v>9.15</v>
+      </c>
       <c r="J84">
-        <v>6.13</v>
-      </c>
-      <c r="K84" s="2">
-        <v>6.09</v>
+        <v>10.68</v>
+      </c>
+      <c r="K84">
+        <v>10.832999999999998</v>
       </c>
       <c r="L84">
-        <v>9.0500000000000007</v>
+        <v>12.219999999999999</v>
       </c>
       <c r="M84">
-        <v>9.15</v>
+        <v>18.200000000000003</v>
       </c>
       <c r="N84">
-        <v>10.78</v>
+        <v>24.759999999999998</v>
       </c>
       <c r="O84">
-        <v>10.8535</v>
+        <v>23.18</v>
       </c>
       <c r="P84">
-        <v>10.68</v>
-      </c>
-      <c r="Q84">
-        <v>10.832999999999998</v>
-      </c>
-      <c r="R84">
-        <f t="shared" si="4"/>
-        <v>12.219999999999999</v>
-      </c>
-      <c r="S84">
-        <f t="shared" si="5"/>
-        <v>18.200000000000003</v>
-      </c>
-      <c r="T84">
-        <v>24.759999999999998</v>
-      </c>
-      <c r="U84">
-        <v>23.18</v>
-      </c>
-      <c r="V84">
         <v>22.09</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E85" s="2">
         <v>1</v>
       </c>
-      <c r="F85" s="9">
-        <v>10.186</v>
-      </c>
-      <c r="G85" s="1">
-        <v>11.69</v>
-      </c>
-      <c r="H85" s="1">
+      <c r="F85" s="1">
         <v>11.45</v>
       </c>
-      <c r="I85" s="9">
+      <c r="G85" s="9">
         <v>9.9960000000000004</v>
       </c>
+      <c r="H85">
+        <v>5.71</v>
+      </c>
+      <c r="I85">
+        <v>8.1300000000000008</v>
+      </c>
       <c r="J85">
-        <v>5.71</v>
+        <v>10.71</v>
       </c>
       <c r="K85">
-        <v>5.56</v>
+        <v>10.765499999999999</v>
       </c>
       <c r="L85">
-        <v>8.1199999999999992</v>
+        <v>11.27</v>
       </c>
       <c r="M85">
-        <v>8.1300000000000008</v>
+        <v>16.25</v>
       </c>
       <c r="N85">
-        <v>10.56</v>
+        <v>23.740000000000002</v>
       </c>
       <c r="O85">
-        <v>10.878</v>
+        <v>22.68</v>
       </c>
       <c r="P85">
-        <v>10.71</v>
-      </c>
-      <c r="Q85">
-        <v>10.765499999999999</v>
-      </c>
-      <c r="R85">
-        <f t="shared" si="4"/>
-        <v>11.27</v>
-      </c>
-      <c r="S85">
-        <f t="shared" si="5"/>
-        <v>16.25</v>
-      </c>
-      <c r="T85">
-        <v>23.740000000000002</v>
-      </c>
-      <c r="U85">
-        <v>22.68</v>
-      </c>
-      <c r="V85">
         <v>20.8</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" t="s">
         <v>170</v>
-      </c>
-      <c r="D86" t="s">
-        <v>171</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
-      <c r="F86" s="9">
-        <v>11.026999999999999</v>
-      </c>
-      <c r="G86" s="1">
-        <v>11.57</v>
-      </c>
-      <c r="H86" s="1">
+      <c r="F86" s="1">
         <v>11.97</v>
       </c>
-      <c r="I86" s="9">
+      <c r="G86" s="9">
         <v>11.27</v>
       </c>
+      <c r="H86">
+        <v>5.67</v>
+      </c>
+      <c r="I86">
+        <v>9.0299999999999994</v>
+      </c>
       <c r="J86">
-        <v>5.67</v>
+        <v>10.23</v>
       </c>
       <c r="K86">
-        <v>6.05</v>
+        <v>11.638</v>
       </c>
       <c r="L86">
-        <v>8.81</v>
+        <v>11.719999999999999</v>
       </c>
       <c r="M86">
-        <v>9.0299999999999994</v>
+        <v>17.84</v>
       </c>
       <c r="N86">
-        <v>10.39</v>
+        <v>24.74</v>
       </c>
       <c r="O86">
-        <v>11.742000000000001</v>
+        <v>24.03</v>
       </c>
       <c r="P86">
-        <v>10.23</v>
-      </c>
-      <c r="Q86">
-        <v>11.638</v>
-      </c>
-      <c r="R86">
-        <f t="shared" si="4"/>
-        <v>11.719999999999999</v>
-      </c>
-      <c r="S86">
-        <f t="shared" si="5"/>
-        <v>17.84</v>
-      </c>
-      <c r="T86">
-        <v>24.74</v>
-      </c>
-      <c r="U86">
-        <v>24.03</v>
-      </c>
-      <c r="V86">
         <v>23.669999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="E87">
         <v>2</v>
       </c>
-      <c r="F87" s="9">
-        <v>11.561999999999999</v>
-      </c>
-      <c r="G87" s="1">
-        <v>11.67</v>
-      </c>
-      <c r="H87" s="1">
+      <c r="F87" s="1">
         <v>12.1</v>
       </c>
-      <c r="I87" s="9">
+      <c r="G87" s="9">
         <v>11.541</v>
       </c>
+      <c r="H87">
+        <v>5.36</v>
+      </c>
+      <c r="I87">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="J87">
-        <v>5.36</v>
+        <v>10.11</v>
       </c>
       <c r="K87">
-        <v>5.49</v>
+        <v>11.571999999999999</v>
       </c>
       <c r="L87">
-        <v>8.7899999999999991</v>
+        <v>10.850000000000001</v>
       </c>
       <c r="M87">
-        <v>8.6999999999999993</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="N87">
-        <v>10.16</v>
+        <v>22.810000000000002</v>
       </c>
       <c r="O87">
-        <v>11.716999999999999</v>
+        <v>23.71</v>
       </c>
       <c r="P87">
-        <v>10.11</v>
-      </c>
-      <c r="Q87">
-        <v>11.571999999999999</v>
-      </c>
-      <c r="R87">
-        <f t="shared" si="4"/>
-        <v>10.850000000000001</v>
-      </c>
-      <c r="S87">
-        <f t="shared" si="5"/>
-        <v>17.489999999999998</v>
-      </c>
-      <c r="T87">
-        <v>22.810000000000002</v>
-      </c>
-      <c r="U87">
-        <v>23.71</v>
-      </c>
-      <c r="V87">
         <v>23.68</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" t="s">
+        <v>238</v>
+      </c>
+      <c r="D88" t="s">
         <v>174</v>
-      </c>
-      <c r="C88" t="s">
-        <v>239</v>
-      </c>
-      <c r="D88" t="s">
-        <v>175</v>
       </c>
       <c r="E88">
         <v>2</v>
       </c>
-      <c r="F88" s="9">
-        <v>10.496</v>
-      </c>
-      <c r="G88" s="1">
-        <v>10.94</v>
-      </c>
-      <c r="H88" s="1">
+      <c r="F88" s="1">
         <v>11.45</v>
       </c>
-      <c r="I88" s="9">
+      <c r="G88" s="9">
         <v>10.643000000000001</v>
       </c>
+      <c r="H88">
+        <v>6.23</v>
+      </c>
+      <c r="I88">
+        <v>8.8800000000000008</v>
+      </c>
       <c r="J88">
-        <v>6.23</v>
+        <v>9.9</v>
       </c>
       <c r="K88">
-        <v>5.82</v>
+        <v>10.667</v>
       </c>
       <c r="L88">
-        <v>9</v>
+        <v>12.05</v>
       </c>
       <c r="M88">
-        <v>8.8800000000000008</v>
+        <v>17.880000000000003</v>
       </c>
       <c r="N88">
-        <v>10.65</v>
+        <v>25.64</v>
       </c>
       <c r="O88">
-        <v>11.030999999999999</v>
+        <v>22.29</v>
       </c>
       <c r="P88">
-        <v>9.9</v>
-      </c>
-      <c r="Q88">
-        <v>10.667</v>
-      </c>
-      <c r="R88">
-        <f t="shared" si="4"/>
-        <v>12.05</v>
-      </c>
-      <c r="S88">
-        <f t="shared" si="5"/>
-        <v>17.880000000000003</v>
-      </c>
-      <c r="T88">
-        <v>25.64</v>
-      </c>
-      <c r="U88">
-        <v>22.29</v>
-      </c>
-      <c r="V88">
         <v>21.28</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" t="s">
+        <v>233</v>
+      </c>
+      <c r="D89" t="s">
         <v>176</v>
-      </c>
-      <c r="C89" t="s">
-        <v>234</v>
-      </c>
-      <c r="D89" t="s">
-        <v>177</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
-      <c r="F89" s="9">
-        <v>12.815</v>
-      </c>
-      <c r="G89" s="1">
-        <v>13.68</v>
-      </c>
-      <c r="H89" s="1">
+      <c r="F89" s="1">
         <v>13.53</v>
       </c>
-      <c r="I89" s="9">
+      <c r="G89" s="9">
         <v>12.346</v>
       </c>
+      <c r="H89">
+        <v>6.85</v>
+      </c>
+      <c r="I89">
+        <v>10.46</v>
+      </c>
       <c r="J89">
-        <v>6.85</v>
+        <v>12.06</v>
       </c>
       <c r="K89">
-        <v>6.27</v>
+        <v>13.265499999999999</v>
       </c>
       <c r="L89">
-        <v>10.49</v>
+        <v>13.12</v>
       </c>
       <c r="M89">
-        <v>10.46</v>
+        <v>20.950000000000003</v>
       </c>
       <c r="N89">
-        <v>12.29</v>
+        <v>28.7</v>
       </c>
       <c r="O89">
-        <v>13.175000000000001</v>
+        <v>28.41</v>
       </c>
       <c r="P89">
-        <v>12.06</v>
-      </c>
-      <c r="Q89">
-        <v>13.265499999999999</v>
-      </c>
-      <c r="R89">
-        <f t="shared" si="4"/>
-        <v>13.12</v>
-      </c>
-      <c r="S89">
-        <f t="shared" si="5"/>
-        <v>20.950000000000003</v>
-      </c>
-      <c r="T89">
-        <v>28.7</v>
-      </c>
-      <c r="U89">
-        <v>28.41</v>
-      </c>
-      <c r="V89">
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" t="s">
         <v>178</v>
-      </c>
-      <c r="D90" t="s">
-        <v>179</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
-      <c r="F90" s="9">
-        <v>10.541</v>
-      </c>
-      <c r="G90" s="1">
-        <v>11.86</v>
-      </c>
-      <c r="H90" s="1">
+      <c r="F90" s="1">
         <v>12.28</v>
       </c>
-      <c r="I90" s="9">
+      <c r="G90" s="9">
         <v>10.583</v>
       </c>
+      <c r="H90">
+        <v>5.73</v>
+      </c>
+      <c r="I90">
+        <v>8.65</v>
+      </c>
       <c r="J90">
-        <v>5.73</v>
+        <v>10.98</v>
       </c>
       <c r="K90">
-        <v>5.53</v>
+        <v>11.4635</v>
       </c>
       <c r="L90">
-        <v>8.5500000000000007</v>
+        <v>11.260000000000002</v>
       </c>
       <c r="M90">
-        <v>8.65</v>
+        <v>17.200000000000003</v>
       </c>
       <c r="N90">
-        <v>10.96</v>
+        <v>24.13</v>
       </c>
       <c r="O90">
-        <v>11.625499999999999</v>
+        <v>24.130000000000003</v>
       </c>
       <c r="P90">
-        <v>10.98</v>
-      </c>
-      <c r="Q90">
-        <v>11.4635</v>
-      </c>
-      <c r="R90">
-        <f t="shared" si="4"/>
-        <v>11.260000000000002</v>
-      </c>
-      <c r="S90">
-        <f t="shared" si="5"/>
-        <v>17.200000000000003</v>
-      </c>
-      <c r="T90">
-        <v>24.13</v>
-      </c>
-      <c r="U90">
-        <v>24.130000000000003</v>
-      </c>
-      <c r="V90">
         <v>22.21</v>
       </c>
     </row>
-    <row r="91" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C91"/>
       <c r="D91" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E91">
         <v>2</v>
       </c>
-      <c r="F91" s="11">
-        <v>11.068</v>
-      </c>
-      <c r="G91" s="8">
-        <v>11.52</v>
-      </c>
-      <c r="H91" s="8">
+      <c r="F91" s="8">
         <v>11.74</v>
       </c>
-      <c r="I91" s="11">
+      <c r="G91" s="11">
         <v>11.292999999999999</v>
       </c>
+      <c r="H91" s="7">
+        <v>5.46</v>
+      </c>
+      <c r="I91" s="7">
+        <v>8.9600000000000009</v>
+      </c>
       <c r="J91" s="7">
-        <v>5.46</v>
-      </c>
-      <c r="K91" s="7">
-        <v>5.32</v>
+        <v>10.86</v>
+      </c>
+      <c r="K91">
+        <v>11.634499999999999</v>
       </c>
       <c r="L91" s="7">
-        <v>8.65</v>
+        <v>10.780000000000001</v>
       </c>
       <c r="M91" s="7">
-        <v>8.9600000000000009</v>
+        <v>17.61</v>
       </c>
       <c r="N91" s="7">
-        <v>10.89</v>
-      </c>
-      <c r="O91">
-        <v>11.2255</v>
+        <v>22.99</v>
+      </c>
+      <c r="O91" s="7">
+        <v>23.669999999999998</v>
       </c>
       <c r="P91" s="7">
-        <v>10.86</v>
-      </c>
-      <c r="Q91">
-        <v>11.634499999999999</v>
-      </c>
-      <c r="R91">
-        <f t="shared" si="4"/>
-        <v>10.780000000000001</v>
-      </c>
-      <c r="S91">
-        <f t="shared" si="5"/>
-        <v>17.61</v>
-      </c>
-      <c r="T91" s="7">
-        <v>22.99</v>
-      </c>
-      <c r="U91" s="7">
-        <v>23.669999999999998</v>
-      </c>
-      <c r="V91" s="7">
         <v>22.31</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" t="s">
         <v>182</v>
-      </c>
-      <c r="D92" t="s">
-        <v>183</v>
       </c>
       <c r="E92">
         <v>2</v>
       </c>
-      <c r="F92" s="9">
-        <v>10.944000000000001</v>
-      </c>
-      <c r="G92" s="1">
-        <v>11.29</v>
-      </c>
-      <c r="H92" s="1">
+      <c r="F92" s="1">
         <v>11.11</v>
       </c>
-      <c r="I92" s="9">
+      <c r="G92" s="9">
         <v>10.936999999999999</v>
       </c>
+      <c r="H92">
+        <v>6.01</v>
+      </c>
+      <c r="I92">
+        <v>8.92</v>
+      </c>
       <c r="J92">
-        <v>6.01</v>
+        <v>10.67</v>
       </c>
       <c r="K92">
-        <v>5.82</v>
+        <v>11.358000000000001</v>
       </c>
       <c r="L92">
-        <v>8.99</v>
+        <v>11.83</v>
       </c>
       <c r="M92">
-        <v>8.92</v>
+        <v>17.91</v>
       </c>
       <c r="N92">
-        <v>10.48</v>
+        <v>23.85</v>
       </c>
       <c r="O92">
-        <v>11.113</v>
+        <v>24.330000000000002</v>
       </c>
       <c r="P92">
-        <v>10.67</v>
-      </c>
-      <c r="Q92">
-        <v>11.358000000000001</v>
-      </c>
-      <c r="R92">
-        <f t="shared" si="4"/>
-        <v>11.83</v>
-      </c>
-      <c r="S92">
-        <f t="shared" si="5"/>
-        <v>17.91</v>
-      </c>
-      <c r="T92">
-        <v>23.85</v>
-      </c>
-      <c r="U92">
-        <v>24.330000000000002</v>
-      </c>
-      <c r="V92">
         <v>22.29</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>183</v>
+      </c>
+      <c r="D93" t="s">
         <v>184</v>
-      </c>
-      <c r="D93" t="s">
-        <v>185</v>
       </c>
       <c r="E93">
         <v>2</v>
       </c>
-      <c r="F93" s="9">
-        <v>11.422000000000001</v>
-      </c>
-      <c r="G93" s="1">
-        <v>12.11</v>
-      </c>
-      <c r="H93" s="1">
+      <c r="F93" s="1">
         <v>12.15</v>
       </c>
-      <c r="I93" s="9">
+      <c r="G93" s="9">
         <v>11.147</v>
       </c>
+      <c r="H93">
+        <v>5.67</v>
+      </c>
+      <c r="I93">
+        <v>8.77</v>
+      </c>
       <c r="J93">
-        <v>5.67</v>
+        <v>10.82</v>
       </c>
       <c r="K93">
-        <v>5.59</v>
+        <v>11.882999999999999</v>
       </c>
       <c r="L93">
-        <v>8.7899999999999991</v>
+        <v>11.26</v>
       </c>
       <c r="M93">
-        <v>8.77</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="N93">
-        <v>11.27</v>
+        <v>23.94</v>
       </c>
       <c r="O93">
-        <v>11.94</v>
+        <v>22.14</v>
       </c>
       <c r="P93">
-        <v>10.82</v>
-      </c>
-      <c r="Q93">
-        <v>11.882999999999999</v>
-      </c>
-      <c r="R93">
-        <f t="shared" si="4"/>
-        <v>11.26</v>
-      </c>
-      <c r="S93">
-        <f t="shared" si="5"/>
-        <v>17.559999999999999</v>
-      </c>
-      <c r="T93">
-        <v>23.94</v>
-      </c>
-      <c r="U93">
-        <v>22.14</v>
-      </c>
-      <c r="V93">
         <v>21.13</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" t="s">
         <v>186</v>
-      </c>
-      <c r="D94" t="s">
-        <v>187</v>
       </c>
       <c r="E94">
         <v>2</v>
       </c>
-      <c r="F94" s="9">
-        <v>11.387</v>
-      </c>
-      <c r="G94" s="1">
-        <v>11.7</v>
-      </c>
-      <c r="H94" s="1">
+      <c r="F94" s="1">
         <v>11.78</v>
       </c>
-      <c r="I94" s="9">
+      <c r="G94" s="9">
         <v>11.513999999999999</v>
       </c>
+      <c r="H94">
+        <v>5.73</v>
+      </c>
+      <c r="I94">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="J94">
-        <v>5.73</v>
+        <v>10.7</v>
       </c>
       <c r="K94">
-        <v>5.94</v>
+        <v>11.713999999999999</v>
       </c>
       <c r="L94">
-        <v>9.4600000000000009</v>
+        <v>11.670000000000002</v>
       </c>
       <c r="M94">
-        <v>9.3000000000000007</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="N94">
-        <v>10.55</v>
+        <v>24.520000000000003</v>
       </c>
       <c r="O94">
-        <v>11.689</v>
+        <v>24.47</v>
       </c>
       <c r="P94">
-        <v>10.7</v>
-      </c>
-      <c r="Q94">
-        <v>11.713999999999999</v>
-      </c>
-      <c r="R94">
-        <f t="shared" si="4"/>
-        <v>11.670000000000002</v>
-      </c>
-      <c r="S94">
-        <f t="shared" si="5"/>
-        <v>18.760000000000002</v>
-      </c>
-      <c r="T94">
-        <v>24.520000000000003</v>
-      </c>
-      <c r="U94">
-        <v>24.47</v>
-      </c>
-      <c r="V94">
         <v>23.490000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>187</v>
+      </c>
+      <c r="D95" t="s">
         <v>188</v>
-      </c>
-      <c r="D95" t="s">
-        <v>189</v>
       </c>
       <c r="E95">
         <v>2</v>
       </c>
-      <c r="F95" s="9">
-        <v>10.965999999999999</v>
-      </c>
-      <c r="G95" s="1">
-        <v>11.72</v>
-      </c>
-      <c r="H95" s="1">
+      <c r="F95" s="1">
         <v>11.47</v>
       </c>
-      <c r="I95" s="9">
+      <c r="G95" s="9">
         <v>10.864000000000001</v>
       </c>
+      <c r="H95">
+        <v>6.16</v>
+      </c>
+      <c r="I95">
+        <v>8.9</v>
+      </c>
       <c r="J95">
-        <v>6.16</v>
+        <v>10.19</v>
       </c>
       <c r="K95">
-        <v>6.11</v>
+        <v>11.995999999999999</v>
       </c>
       <c r="L95">
-        <v>9.06</v>
+        <v>12.27</v>
       </c>
       <c r="M95">
-        <v>8.9</v>
+        <v>17.96</v>
       </c>
       <c r="N95">
-        <v>10.210000000000001</v>
+        <v>26.32</v>
       </c>
       <c r="O95">
-        <v>11.8995</v>
+        <v>23.43</v>
       </c>
       <c r="P95">
-        <v>10.19</v>
-      </c>
-      <c r="Q95">
-        <v>11.995999999999999</v>
-      </c>
-      <c r="R95">
-        <f t="shared" si="4"/>
-        <v>12.27</v>
-      </c>
-      <c r="S95">
-        <f t="shared" si="5"/>
-        <v>17.96</v>
-      </c>
-      <c r="T95">
-        <v>26.32</v>
-      </c>
-      <c r="U95">
-        <v>23.43</v>
-      </c>
-      <c r="V95">
         <v>22.45</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" t="s">
         <v>190</v>
-      </c>
-      <c r="D96" t="s">
-        <v>191</v>
       </c>
       <c r="E96">
         <v>2</v>
       </c>
-      <c r="F96" s="9">
-        <v>10.945</v>
-      </c>
-      <c r="G96" s="1">
+      <c r="F96" s="1">
         <v>11.69</v>
       </c>
-      <c r="H96" s="1">
-        <v>11.69</v>
-      </c>
-      <c r="I96" s="9">
+      <c r="G96" s="9">
         <v>10.738</v>
       </c>
+      <c r="H96">
+        <v>5.62</v>
+      </c>
+      <c r="I96">
+        <v>8.98</v>
+      </c>
       <c r="J96">
-        <v>5.62</v>
+        <v>11.11</v>
       </c>
       <c r="K96">
-        <v>5.34</v>
+        <v>11.5565</v>
       </c>
       <c r="L96">
-        <v>8.93</v>
+        <v>10.96</v>
       </c>
       <c r="M96">
-        <v>8.98</v>
+        <v>17.91</v>
       </c>
       <c r="N96">
-        <v>10.94</v>
+        <v>23.939999999999998</v>
       </c>
       <c r="O96">
-        <v>11.228</v>
+        <v>24.9</v>
       </c>
       <c r="P96">
-        <v>11.11</v>
-      </c>
-      <c r="Q96">
-        <v>11.5565</v>
-      </c>
-      <c r="R96">
-        <f t="shared" si="4"/>
-        <v>10.96</v>
-      </c>
-      <c r="S96">
-        <f t="shared" si="5"/>
-        <v>17.91</v>
-      </c>
-      <c r="T96">
-        <v>23.939999999999998</v>
-      </c>
-      <c r="U96">
-        <v>24.9</v>
-      </c>
-      <c r="V96">
         <v>23.31</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>191</v>
+      </c>
+      <c r="D97" t="s">
         <v>192</v>
-      </c>
-      <c r="D97" t="s">
-        <v>193</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
-      <c r="F97" s="9">
-        <v>10.614000000000001</v>
-      </c>
-      <c r="G97" s="1">
+      <c r="F97" s="1">
+        <v>11.05</v>
+      </c>
+      <c r="G97" s="9">
+        <v>10.398999999999999</v>
+      </c>
+      <c r="H97">
+        <v>5.6</v>
+      </c>
+      <c r="I97">
+        <v>8.23</v>
+      </c>
+      <c r="J97">
+        <v>10.5</v>
+      </c>
+      <c r="K97">
+        <v>11.170999999999999</v>
+      </c>
+      <c r="L97">
         <v>11.14</v>
       </c>
-      <c r="H97" s="1">
-        <v>11.05</v>
-      </c>
-      <c r="I97" s="9">
-        <v>10.398999999999999</v>
-      </c>
-      <c r="J97">
-        <v>5.6</v>
-      </c>
-      <c r="K97">
-        <v>5.54</v>
-      </c>
-      <c r="L97">
-        <v>8.43</v>
-      </c>
       <c r="M97">
-        <v>8.23</v>
+        <v>16.66</v>
       </c>
       <c r="N97">
-        <v>10.49</v>
+        <v>23.319999999999997</v>
       </c>
       <c r="O97">
-        <v>11.225999999999999</v>
+        <v>24.02</v>
       </c>
       <c r="P97">
-        <v>10.5</v>
-      </c>
-      <c r="Q97">
-        <v>11.170999999999999</v>
-      </c>
-      <c r="R97">
-        <f t="shared" si="4"/>
-        <v>11.14</v>
-      </c>
-      <c r="S97">
-        <f t="shared" si="5"/>
-        <v>16.66</v>
-      </c>
-      <c r="T97">
-        <v>23.319999999999997</v>
-      </c>
-      <c r="U97">
-        <v>24.02</v>
-      </c>
-      <c r="V97">
         <v>21.96</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>193</v>
+      </c>
+      <c r="D98" t="s">
         <v>194</v>
-      </c>
-      <c r="D98" t="s">
-        <v>195</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
-      <c r="F98" s="9">
-        <v>10.89</v>
-      </c>
-      <c r="G98" s="1">
-        <v>11.32</v>
-      </c>
-      <c r="H98" s="1">
+      <c r="F98" s="1">
         <v>11.43</v>
       </c>
-      <c r="I98" s="9">
+      <c r="G98" s="9">
         <v>10.622</v>
       </c>
+      <c r="H98">
+        <v>5.87</v>
+      </c>
+      <c r="I98">
+        <v>8.73</v>
+      </c>
       <c r="J98">
-        <v>5.87</v>
+        <v>10.4</v>
       </c>
       <c r="K98">
-        <v>5.91</v>
+        <v>11.257</v>
       </c>
       <c r="L98">
-        <v>8.65</v>
+        <v>11.780000000000001</v>
       </c>
       <c r="M98">
-        <v>8.73</v>
+        <v>17.380000000000003</v>
       </c>
       <c r="N98">
-        <v>10.29</v>
+        <v>25.07</v>
       </c>
       <c r="O98">
-        <v>11.240500000000001</v>
+        <v>21.59</v>
       </c>
       <c r="P98">
-        <v>10.4</v>
-      </c>
-      <c r="Q98">
-        <v>11.257</v>
-      </c>
-      <c r="R98">
-        <f t="shared" si="4"/>
-        <v>11.780000000000001</v>
-      </c>
-      <c r="S98">
-        <f t="shared" si="5"/>
-        <v>17.380000000000003</v>
-      </c>
-      <c r="T98">
-        <v>25.07</v>
-      </c>
-      <c r="U98">
-        <v>21.59</v>
-      </c>
-      <c r="V98">
         <v>21.53</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>195</v>
+      </c>
+      <c r="D99" t="s">
         <v>196</v>
-      </c>
-      <c r="D99" t="s">
-        <v>197</v>
       </c>
       <c r="E99">
         <v>2</v>
       </c>
-      <c r="F99" s="9">
-        <v>10.901</v>
-      </c>
-      <c r="G99" s="1">
-        <v>11.75</v>
-      </c>
-      <c r="H99" s="1">
+      <c r="F99" s="1">
         <v>11.31</v>
       </c>
-      <c r="I99" s="9">
+      <c r="G99" s="9">
         <v>10.654</v>
       </c>
+      <c r="H99">
+        <v>5.51</v>
+      </c>
+      <c r="I99">
+        <v>8.4700000000000006</v>
+      </c>
       <c r="J99">
-        <v>5.51</v>
+        <v>10.61</v>
       </c>
       <c r="K99">
-        <v>5.42</v>
+        <v>11.221</v>
       </c>
       <c r="L99">
-        <v>8.2899999999999991</v>
+        <v>10.93</v>
       </c>
       <c r="M99">
-        <v>8.4700000000000006</v>
+        <v>16.759999999999998</v>
       </c>
       <c r="N99">
-        <v>11.05</v>
+        <v>23.23</v>
       </c>
       <c r="O99">
-        <v>11.323</v>
+        <v>22.68</v>
       </c>
       <c r="P99">
-        <v>10.61</v>
-      </c>
-      <c r="Q99">
-        <v>11.221</v>
-      </c>
-      <c r="R99">
-        <f t="shared" si="4"/>
-        <v>10.93</v>
-      </c>
-      <c r="S99">
-        <f t="shared" si="5"/>
-        <v>16.759999999999998</v>
-      </c>
-      <c r="T99">
-        <v>23.23</v>
-      </c>
-      <c r="U99">
-        <v>22.68</v>
-      </c>
-      <c r="V99">
         <v>21.23</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>197</v>
+      </c>
+      <c r="D100" t="s">
         <v>198</v>
-      </c>
-      <c r="D100" t="s">
-        <v>199</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
-      <c r="F100" s="9">
-        <v>11.215</v>
-      </c>
-      <c r="G100" s="1">
-        <v>11.83</v>
-      </c>
-      <c r="H100" s="1">
+      <c r="F100" s="1">
         <v>11.51</v>
       </c>
-      <c r="I100" s="9">
+      <c r="G100" s="9">
         <v>11.125999999999999</v>
       </c>
-      <c r="J100">
+      <c r="H100">
         <v>5.75</v>
       </c>
+      <c r="I100">
+        <v>9.1</v>
+      </c>
+      <c r="J100" s="3">
+        <v>10.85</v>
+      </c>
       <c r="K100">
-        <v>5.91</v>
+        <v>11.6205</v>
       </c>
       <c r="L100">
-        <v>9.1</v>
+        <v>11.66</v>
       </c>
       <c r="M100">
-        <v>9.1</v>
-      </c>
-      <c r="N100" s="3">
-        <v>10.64</v>
+        <v>18.2</v>
+      </c>
+      <c r="N100">
+        <v>24.270000000000003</v>
       </c>
       <c r="O100">
-        <v>11.8605</v>
-      </c>
-      <c r="P100" s="3">
-        <v>10.85</v>
-      </c>
-      <c r="Q100">
-        <v>11.6205</v>
-      </c>
-      <c r="R100">
-        <f t="shared" si="4"/>
-        <v>11.66</v>
-      </c>
-      <c r="S100">
-        <f t="shared" si="5"/>
-        <v>18.2</v>
-      </c>
-      <c r="T100">
-        <v>24.270000000000003</v>
-      </c>
-      <c r="U100">
         <v>23.240000000000002</v>
       </c>
-      <c r="V100">
+      <c r="P100">
         <v>22.27</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>199</v>
+      </c>
+      <c r="D101" t="s">
         <v>200</v>
-      </c>
-      <c r="D101" t="s">
-        <v>201</v>
       </c>
       <c r="E101">
         <v>2</v>
       </c>
-      <c r="F101" s="9">
-        <v>11.465999999999999</v>
-      </c>
-      <c r="G101" s="1">
-        <v>12.89</v>
-      </c>
-      <c r="H101" s="1">
+      <c r="F101" s="1">
         <v>12.9</v>
       </c>
-      <c r="I101" s="9">
+      <c r="G101" s="9">
         <v>11.473000000000001</v>
       </c>
+      <c r="H101">
+        <v>6.42</v>
+      </c>
+      <c r="I101">
+        <v>9.94</v>
+      </c>
       <c r="J101">
-        <v>6.42</v>
+        <v>11.66</v>
       </c>
       <c r="K101">
-        <v>6.36</v>
+        <v>11.9725</v>
       </c>
       <c r="L101">
-        <v>9.64</v>
+        <v>12.780000000000001</v>
       </c>
       <c r="M101">
-        <v>9.94</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="N101">
-        <v>11.77</v>
+        <v>26.3</v>
       </c>
       <c r="O101">
-        <v>12.3645</v>
+        <v>25.09</v>
       </c>
       <c r="P101">
-        <v>11.66</v>
-      </c>
-      <c r="Q101">
-        <v>11.9725</v>
-      </c>
-      <c r="R101">
-        <f t="shared" si="4"/>
-        <v>12.780000000000001</v>
-      </c>
-      <c r="S101">
-        <f t="shared" si="5"/>
-        <v>19.579999999999998</v>
-      </c>
-      <c r="T101">
-        <v>26.3</v>
-      </c>
-      <c r="U101">
-        <v>25.09</v>
-      </c>
-      <c r="V101">
         <v>23.990000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J107" s="1"/>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J108" s="1"/>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J109" s="1"/>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H109" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B16">
